--- a/capiq_data/in_process_data/IQ29728.xlsx
+++ b/capiq_data/in_process_data/IQ29728.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A1237-5A86-4870-AD63-026EC7D8E646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC3389-DFBD-47A8-BA08-D30062292C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"bf6e77f8-d1ed-4ab7-9d89-f417b1f46b02"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4dd11093-8a68-403d-9e0e-c47629b094a1"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>41.512999999999998</v>
+        <v>13.535</v>
       </c>
       <c r="D2">
-        <v>405.21800000000002</v>
+        <v>166.13800000000001</v>
       </c>
       <c r="E2">
-        <v>207.577</v>
+        <v>100.61</v>
       </c>
       <c r="F2">
-        <v>161.988</v>
+        <v>64.289000000000001</v>
       </c>
       <c r="G2">
-        <v>692.75800000000004</v>
+        <v>232.089</v>
       </c>
       <c r="H2">
-        <v>2381.6950000000002</v>
+        <v>758.85400000000004</v>
       </c>
       <c r="I2">
-        <v>104.05500000000001</v>
+        <v>43.341999999999999</v>
       </c>
       <c r="J2">
-        <v>408.45</v>
+        <v>153.809</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>88.076999999999998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>353.66800000000001</v>
+        <v>177.81100000000001</v>
       </c>
       <c r="O2">
-        <v>1006.035</v>
+        <v>384.35199999999998</v>
       </c>
       <c r="P2">
-        <v>530.22299999999996</v>
+        <v>241.886</v>
       </c>
       <c r="Q2">
-        <v>29.082000000000001</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>5966</v>
+        <v>3880</v>
       </c>
       <c r="T2">
-        <v>1375.66</v>
+        <v>374.50200000000001</v>
       </c>
       <c r="U2">
-        <v>235.136</v>
+        <v>8.4149999999999991</v>
       </c>
       <c r="V2">
-        <v>27.131</v>
+        <v>29.718</v>
       </c>
       <c r="W2">
-        <v>-12.252000000000001</v>
+        <v>-4.2149999999999999</v>
       </c>
       <c r="X2">
-        <v>33.203000000000003</v>
+        <v>-21.096</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>41.512999999999998</v>
+        <v>13.535</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>47.951000000000001</v>
+        <v>7.2290000000000001</v>
       </c>
       <c r="D3">
-        <v>427.089</v>
+        <v>187.39500000000001</v>
       </c>
       <c r="E3">
-        <v>242.17699999999999</v>
+        <v>110.631</v>
       </c>
       <c r="F3">
-        <v>178.7</v>
+        <v>68.777000000000001</v>
       </c>
       <c r="G3">
-        <v>704.00699999999995</v>
+        <v>248.952</v>
       </c>
       <c r="H3">
-        <v>2465.4279999999999</v>
+        <v>867.74300000000005</v>
       </c>
       <c r="I3">
-        <v>112.90600000000001</v>
+        <v>48.231999999999999</v>
       </c>
       <c r="J3">
-        <v>415.38299999999998</v>
+        <v>151.857</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>180.62899999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-17.983000000000001</v>
+        <v>-10.818</v>
       </c>
       <c r="N3">
-        <v>328.709</v>
+        <v>277.91000000000003</v>
       </c>
       <c r="O3">
-        <v>992.44200000000001</v>
+        <v>486.01600000000002</v>
       </c>
       <c r="P3">
-        <v>519.90700000000004</v>
+        <v>332.48599999999999</v>
       </c>
       <c r="Q3">
-        <v>-39.588000000000001</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1472.9860000000001</v>
+        <v>381.72699999999998</v>
       </c>
       <c r="U3">
-        <v>195.548</v>
+        <v>8.3170000000000002</v>
       </c>
       <c r="V3">
-        <v>29.126999999999999</v>
+        <v>20.497</v>
       </c>
       <c r="W3">
-        <v>-12.291</v>
+        <v>-4.2359999999999998</v>
       </c>
       <c r="X3">
-        <v>-11.859</v>
+        <v>91.213999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>47.951000000000001</v>
+        <v>7.2290000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>50.182000000000002</v>
+        <v>12.993</v>
       </c>
       <c r="D4">
-        <v>453.798</v>
+        <v>192.62200000000001</v>
       </c>
       <c r="E4">
-        <v>270.23399999999998</v>
+        <v>111.425</v>
       </c>
       <c r="F4">
-        <v>184.839</v>
+        <v>70.707999999999998</v>
       </c>
       <c r="G4">
-        <v>814.005</v>
+        <v>246.11699999999999</v>
       </c>
       <c r="H4">
-        <v>2923.32</v>
+        <v>874.12900000000002</v>
       </c>
       <c r="I4">
-        <v>128.11699999999999</v>
+        <v>43.761000000000003</v>
       </c>
       <c r="J4">
-        <v>793.11699999999996</v>
+        <v>331.80099999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>350.12599999999998</v>
+        <v>96.668999999999997</v>
       </c>
       <c r="O4">
-        <v>1411.67</v>
+        <v>486.04399999999998</v>
       </c>
       <c r="P4">
-        <v>879.298</v>
+        <v>331.80099999999999</v>
       </c>
       <c r="Q4">
-        <v>7.4130000000000003</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1511.65</v>
+        <v>388.08499999999998</v>
       </c>
       <c r="U4">
-        <v>202.96100000000001</v>
+        <v>9.85</v>
       </c>
       <c r="V4">
-        <v>51.710999999999999</v>
+        <v>30.02</v>
       </c>
       <c r="W4">
-        <v>-14.069000000000001</v>
+        <v>-4.2569999999999997</v>
       </c>
       <c r="X4">
-        <v>343.46100000000001</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>50.182000000000002</v>
+        <v>12.993</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>48.335999999999999</v>
+        <v>8.1839999999999993</v>
       </c>
       <c r="D5">
-        <v>476.88099999999997</v>
+        <v>178.137</v>
       </c>
       <c r="E5">
-        <v>258.346</v>
+        <v>109.274</v>
       </c>
       <c r="F5">
-        <v>194.33199999999999</v>
+        <v>64.656999999999996</v>
       </c>
       <c r="G5">
-        <v>805.30600000000004</v>
+        <v>237.29300000000001</v>
       </c>
       <c r="H5">
-        <v>2893.7280000000001</v>
+        <v>867.92600000000004</v>
       </c>
       <c r="I5">
-        <v>119.738</v>
+        <v>46.29</v>
       </c>
       <c r="J5">
-        <v>733.20399999999995</v>
+        <v>308.15699999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>393.15899999999999</v>
+        <v>99.725999999999999</v>
       </c>
       <c r="O5">
-        <v>1388.307</v>
+        <v>468.19499999999999</v>
       </c>
       <c r="P5">
-        <v>855.43899999999996</v>
+        <v>308.15699999999998</v>
       </c>
       <c r="Q5">
-        <v>17.5</v>
+        <v>-3.4980000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1505.421</v>
+        <v>399.73099999999999</v>
       </c>
       <c r="U5">
-        <v>220.46100000000001</v>
+        <v>6.3520000000000003</v>
       </c>
       <c r="V5">
-        <v>94.771000000000001</v>
+        <v>32.441000000000003</v>
       </c>
       <c r="W5">
-        <v>-14.098000000000001</v>
+        <v>-4.2720000000000002</v>
       </c>
       <c r="X5">
-        <v>-58.917000000000002</v>
+        <v>-30.632999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>48.335999999999999</v>
+        <v>8.1839999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>47.387999999999998</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="D6">
-        <v>480.68299999999999</v>
+        <v>168.79300000000001</v>
       </c>
       <c r="E6">
-        <v>248.95599999999999</v>
+        <v>90.569000000000003</v>
       </c>
       <c r="F6">
-        <v>209.40199999999999</v>
+        <v>59.58</v>
       </c>
       <c r="G6">
-        <v>789.16099999999994</v>
+        <v>214.90299999999999</v>
       </c>
       <c r="H6">
-        <v>2836.107</v>
+        <v>838.80399999999997</v>
       </c>
       <c r="I6">
-        <v>110.977</v>
+        <v>41.26</v>
       </c>
       <c r="J6">
-        <v>806.36599999999999</v>
+        <v>291.82</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>258.27800000000002</v>
+        <v>87.337999999999994</v>
       </c>
       <c r="O6">
-        <v>1322.972</v>
+        <v>437.69200000000001</v>
       </c>
       <c r="P6">
-        <v>808.81</v>
+        <v>291.82</v>
       </c>
       <c r="Q6">
-        <v>9.798</v>
+        <v>-1.38</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>6814</v>
+        <v>3873</v>
       </c>
       <c r="T6">
-        <v>1513.135</v>
+        <v>401.11200000000002</v>
       </c>
       <c r="U6">
-        <v>230.25899999999999</v>
+        <v>4.9720000000000004</v>
       </c>
       <c r="V6">
-        <v>41.631999999999998</v>
+        <v>22.533999999999999</v>
       </c>
       <c r="W6">
-        <v>-14.154999999999999</v>
+        <v>-4.2960000000000003</v>
       </c>
       <c r="X6">
-        <v>-19.273</v>
+        <v>-17.841000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>47.387999999999998</v>
+        <v>4.3040000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>52.170999999999999</v>
+        <v>11.545</v>
       </c>
       <c r="D7">
-        <v>489.41699999999997</v>
+        <v>174.93600000000001</v>
       </c>
       <c r="E7">
-        <v>270.82499999999999</v>
+        <v>97.597999999999999</v>
       </c>
       <c r="F7">
-        <v>202.88900000000001</v>
+        <v>65.424999999999997</v>
       </c>
       <c r="G7">
-        <v>829.06899999999996</v>
+        <v>223.93899999999999</v>
       </c>
       <c r="H7">
-        <v>2879.1260000000002</v>
+        <v>838.94100000000003</v>
       </c>
       <c r="I7">
-        <v>116.209</v>
+        <v>46.238</v>
       </c>
       <c r="J7">
-        <v>769.85</v>
+        <v>275.61900000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-48.009</v>
+        <v>-13.132999999999999</v>
       </c>
       <c r="N7">
-        <v>249.26</v>
+        <v>92.712000000000003</v>
       </c>
       <c r="O7">
-        <v>1278.5550000000001</v>
+        <v>427.762</v>
       </c>
       <c r="P7">
-        <v>773.64599999999996</v>
+        <v>275.61900000000003</v>
       </c>
       <c r="Q7">
-        <v>15.284000000000001</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1600.5709999999999</v>
+        <v>411.17899999999997</v>
       </c>
       <c r="U7">
-        <v>245.54300000000001</v>
+        <v>6.7210000000000001</v>
       </c>
       <c r="V7">
-        <v>58.741999999999997</v>
+        <v>23.792000000000002</v>
       </c>
       <c r="W7">
-        <v>-14.161</v>
+        <v>-4.3029999999999999</v>
       </c>
       <c r="X7">
-        <v>-39.820999999999998</v>
+        <v>-17.713000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>52.170999999999999</v>
+        <v>11.545</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>54.350999999999999</v>
+        <v>15.61</v>
       </c>
       <c r="D8">
-        <v>494.14400000000001</v>
+        <v>190.43</v>
       </c>
       <c r="E8">
-        <v>265.209</v>
+        <v>105.371</v>
       </c>
       <c r="F8">
-        <v>203.113</v>
+        <v>74.138000000000005</v>
       </c>
       <c r="G8">
-        <v>798.08900000000006</v>
+        <v>230.56100000000001</v>
       </c>
       <c r="H8">
-        <v>2856.8020000000001</v>
+        <v>864.24699999999996</v>
       </c>
       <c r="I8">
-        <v>114.43</v>
+        <v>53.02</v>
       </c>
       <c r="J8">
-        <v>753.72500000000002</v>
+        <v>210.90799999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>260.89999999999998</v>
+        <v>101.262</v>
       </c>
       <c r="O8">
-        <v>1277.549</v>
+        <v>375.92599999999999</v>
       </c>
       <c r="P8">
-        <v>759.34100000000001</v>
+        <v>210.90799999999999</v>
       </c>
       <c r="Q8">
-        <v>-24.433</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1579.2529999999999</v>
+        <v>488.32100000000003</v>
       </c>
       <c r="U8">
-        <v>221.11</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="V8">
-        <v>80.736000000000004</v>
+        <v>28.038</v>
       </c>
       <c r="W8">
-        <v>-16.731000000000002</v>
+        <v>-4.3319999999999999</v>
       </c>
       <c r="X8">
-        <v>-51.026000000000003</v>
+        <v>-20.582000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>54.350999999999999</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>50.127000000000002</v>
+        <v>14.786</v>
       </c>
       <c r="D9">
-        <v>479.85899999999998</v>
+        <v>189.10499999999999</v>
       </c>
       <c r="E9">
-        <v>277.505</v>
+        <v>105.605</v>
       </c>
       <c r="F9">
-        <v>194.84</v>
+        <v>71.614000000000004</v>
       </c>
       <c r="G9">
-        <v>843.86400000000003</v>
+        <v>228.60599999999999</v>
       </c>
       <c r="H9">
-        <v>2957.4349999999999</v>
+        <v>919.28099999999995</v>
       </c>
       <c r="I9">
-        <v>117.79300000000001</v>
+        <v>51.42</v>
       </c>
       <c r="J9">
-        <v>782.76800000000003</v>
+        <v>249.572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>294.04199999999997</v>
+        <v>102.74</v>
       </c>
       <c r="O9">
-        <v>1348.598</v>
+        <v>418.762</v>
       </c>
       <c r="P9">
-        <v>787.92</v>
+        <v>249.572</v>
       </c>
       <c r="Q9">
-        <v>39.393000000000001</v>
+        <v>-1.6040000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1608.837</v>
+        <v>500.51900000000001</v>
       </c>
       <c r="U9">
-        <v>260.50299999999999</v>
+        <v>6.0880000000000001</v>
       </c>
       <c r="V9">
-        <v>101.02</v>
+        <v>31.710999999999999</v>
       </c>
       <c r="W9">
-        <v>-16.66</v>
+        <v>-4.5419999999999998</v>
       </c>
       <c r="X9">
-        <v>-23.027000000000001</v>
+        <v>34.671999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>50.127000000000002</v>
+        <v>14.786</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-119.01900000000001</v>
+        <v>12.170999999999999</v>
       </c>
       <c r="D10">
-        <v>490.83800000000002</v>
+        <v>187.54300000000001</v>
       </c>
       <c r="E10">
-        <v>251.518</v>
+        <v>98.772000000000006</v>
       </c>
       <c r="F10">
-        <v>203.75800000000001</v>
+        <v>70.260999999999996</v>
       </c>
       <c r="G10">
-        <v>881.86500000000001</v>
+        <v>221.26</v>
       </c>
       <c r="H10">
-        <v>2785.39</v>
+        <v>931.05</v>
       </c>
       <c r="I10">
-        <v>117.34099999999999</v>
+        <v>61.152999999999999</v>
       </c>
       <c r="J10">
-        <v>779.24099999999999</v>
+        <v>241.05099999999999</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>291.42700000000002</v>
+        <v>108.33199999999999</v>
       </c>
       <c r="O10">
-        <v>1320.3920000000001</v>
+        <v>424.25900000000001</v>
       </c>
       <c r="P10">
-        <v>786.57600000000002</v>
+        <v>241.05099999999999</v>
       </c>
       <c r="Q10">
-        <v>58.360999999999997</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>6717</v>
+        <v>3863</v>
       </c>
       <c r="T10">
-        <v>1464.998</v>
+        <v>506.791</v>
       </c>
       <c r="U10">
-        <v>318.86399999999998</v>
+        <v>6.952</v>
       </c>
       <c r="V10">
-        <v>85.682000000000002</v>
+        <v>25.943999999999999</v>
       </c>
       <c r="W10">
-        <v>-16.535</v>
+        <v>-4.5439999999999996</v>
       </c>
       <c r="X10">
-        <v>-22.611000000000001</v>
+        <v>-13.553000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-119.01900000000001</v>
+        <v>12.170999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>61.3</v>
+        <v>12.695</v>
       </c>
       <c r="D11">
-        <v>494.44799999999998</v>
+        <v>195.49799999999999</v>
       </c>
       <c r="E11">
-        <v>269.87299999999999</v>
+        <v>107.35299999999999</v>
       </c>
       <c r="F11">
-        <v>211.99700000000001</v>
+        <v>74.302999999999997</v>
       </c>
       <c r="G11">
-        <v>921.91800000000001</v>
+        <v>231.386</v>
       </c>
       <c r="H11">
-        <v>2822.6</v>
+        <v>939.35400000000004</v>
       </c>
       <c r="I11">
-        <v>122.376</v>
+        <v>54.914999999999999</v>
       </c>
       <c r="J11">
-        <v>815.56200000000001</v>
+        <v>238.15600000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.30499999999999999</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="N11">
-        <v>283.62200000000001</v>
+        <v>102.578</v>
       </c>
       <c r="O11">
-        <v>1340.953</v>
+        <v>419.34699999999998</v>
       </c>
       <c r="P11">
-        <v>822.33799999999997</v>
+        <v>238.15600000000001</v>
       </c>
       <c r="Q11">
-        <v>22.181000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1481.6469999999999</v>
+        <v>520.00699999999995</v>
       </c>
       <c r="U11">
-        <v>341.04500000000002</v>
+        <v>7.7720000000000002</v>
       </c>
       <c r="V11">
-        <v>72.194999999999993</v>
+        <v>16.86</v>
       </c>
       <c r="W11">
-        <v>-16.574999999999999</v>
+        <v>-4.5510000000000002</v>
       </c>
       <c r="X11">
-        <v>1.5529999999999999</v>
+        <v>-7.2850000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>61.3</v>
+        <v>12.695</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>62.561</v>
+        <v>16.943000000000001</v>
       </c>
       <c r="D12">
-        <v>518.44500000000005</v>
+        <v>207.14699999999999</v>
       </c>
       <c r="E12">
-        <v>268.03500000000003</v>
+        <v>118.443</v>
       </c>
       <c r="F12">
-        <v>222.84899999999999</v>
+        <v>82.123000000000005</v>
       </c>
       <c r="G12">
-        <v>936.1</v>
+        <v>240.91300000000001</v>
       </c>
       <c r="H12">
-        <v>2827.652</v>
+        <v>962.43600000000004</v>
       </c>
       <c r="I12">
-        <v>127.292</v>
+        <v>60.524999999999999</v>
       </c>
       <c r="J12">
-        <v>811.00699999999995</v>
+        <v>222.67099999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>294.68299999999999</v>
+        <v>112.494</v>
       </c>
       <c r="O12">
-        <v>1348.16</v>
+        <v>416.91699999999997</v>
       </c>
       <c r="P12">
-        <v>815.45799999999997</v>
+        <v>222.67099999999999</v>
       </c>
       <c r="Q12">
-        <v>33.444000000000003</v>
+        <v>-1.9159999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1479.492</v>
+        <v>545.51900000000001</v>
       </c>
       <c r="U12">
-        <v>374.48899999999998</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="V12">
-        <v>109.319</v>
+        <v>30.192</v>
       </c>
       <c r="W12">
-        <v>-18.846</v>
+        <v>-4.5510000000000002</v>
       </c>
       <c r="X12">
-        <v>-67.403000000000006</v>
+        <v>-17.274000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>62.561</v>
+        <v>16.943000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>63.798999999999999</v>
+        <v>16.509</v>
       </c>
       <c r="D13">
-        <v>490.61700000000002</v>
+        <v>197.31399999999999</v>
       </c>
       <c r="E13">
-        <v>255.977</v>
+        <v>108.76300000000001</v>
       </c>
       <c r="F13">
-        <v>211.50899999999999</v>
+        <v>76.177999999999997</v>
       </c>
       <c r="G13">
-        <v>950.76900000000001</v>
+        <v>227.999</v>
       </c>
       <c r="H13">
-        <v>2849.3809999999999</v>
+        <v>953.94899999999996</v>
       </c>
       <c r="I13">
-        <v>130.68299999999999</v>
+        <v>57.52</v>
       </c>
       <c r="J13">
-        <v>780.04300000000001</v>
+        <v>188.70699999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>309.04199999999997</v>
+        <v>114.86</v>
       </c>
       <c r="O13">
-        <v>1334.857</v>
+        <v>387.38099999999997</v>
       </c>
       <c r="P13">
-        <v>784.42200000000003</v>
+        <v>188.70699999999999</v>
       </c>
       <c r="Q13">
-        <v>25.315999999999999</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1514.5239999999999</v>
+        <v>566.56799999999998</v>
       </c>
       <c r="U13">
-        <v>399.80500000000001</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="V13">
-        <v>118.396</v>
+        <v>43.228000000000002</v>
       </c>
       <c r="W13">
-        <v>-18.536000000000001</v>
+        <v>-4.577</v>
       </c>
       <c r="X13">
-        <v>-97.540999999999997</v>
+        <v>-32.058999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>63.798999999999999</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>67.555000000000007</v>
+        <v>16.204999999999998</v>
       </c>
       <c r="D14">
-        <v>520.62</v>
+        <v>197.96100000000001</v>
       </c>
       <c r="E14">
-        <v>250.15100000000001</v>
+        <v>98.167000000000002</v>
       </c>
       <c r="F14">
-        <v>228.809</v>
+        <v>76.715999999999994</v>
       </c>
       <c r="G14">
-        <v>990.95299999999997</v>
+        <v>224.49600000000001</v>
       </c>
       <c r="H14">
-        <v>2887.5770000000002</v>
+        <v>960.73900000000003</v>
       </c>
       <c r="I14">
-        <v>133.31200000000001</v>
+        <v>56.252000000000002</v>
       </c>
       <c r="J14">
-        <v>772.005</v>
+        <v>176.54599999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>304.60899999999998</v>
+        <v>115.681</v>
       </c>
       <c r="O14">
-        <v>1314.588</v>
+        <v>368.637</v>
       </c>
       <c r="P14">
-        <v>773.87599999999998</v>
+        <v>176.54599999999999</v>
       </c>
       <c r="Q14">
-        <v>39.823999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>6787</v>
+        <v>3689</v>
       </c>
       <c r="T14">
-        <v>1572.989</v>
+        <v>592.10199999999998</v>
       </c>
       <c r="U14">
-        <v>439.62900000000002</v>
+        <v>8.5519999999999996</v>
       </c>
       <c r="V14">
-        <v>101.61199999999999</v>
+        <v>21.405999999999999</v>
       </c>
       <c r="W14">
-        <v>-18.948</v>
+        <v>-4.6050000000000004</v>
       </c>
       <c r="X14">
-        <v>-55.654000000000003</v>
+        <v>-14.632</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>67.555000000000007</v>
+        <v>16.204999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>74.548000000000002</v>
+        <v>17.692</v>
       </c>
       <c r="D15">
-        <v>543.99599999999998</v>
+        <v>214.6</v>
       </c>
       <c r="E15">
-        <v>287.90300000000002</v>
+        <v>113.21599999999999</v>
       </c>
       <c r="F15">
-        <v>244.42</v>
+        <v>85.73</v>
       </c>
       <c r="G15">
-        <v>1063.376</v>
+        <v>240.589</v>
       </c>
       <c r="H15">
-        <v>2951.8220000000001</v>
+        <v>1020.018</v>
       </c>
       <c r="I15">
-        <v>149.04499999999999</v>
+        <v>67.233000000000004</v>
       </c>
       <c r="J15">
-        <v>778.85199999999998</v>
+        <v>198.79400000000001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-13.617000000000001</v>
+        <v>-16.643999999999998</v>
       </c>
       <c r="N15">
-        <v>313.98099999999999</v>
+        <v>132.56899999999999</v>
       </c>
       <c r="O15">
-        <v>1330.8240000000001</v>
+        <v>408.89499999999998</v>
       </c>
       <c r="P15">
-        <v>780.245</v>
+        <v>198.79400000000001</v>
       </c>
       <c r="Q15">
-        <v>18.754000000000001</v>
+        <v>-0.72</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1620.998</v>
+        <v>611.12300000000005</v>
       </c>
       <c r="U15">
-        <v>458.38299999999998</v>
+        <v>7.8319999999999999</v>
       </c>
       <c r="V15">
-        <v>74.185000000000002</v>
+        <v>19.46</v>
       </c>
       <c r="W15">
-        <v>-18.628</v>
+        <v>-4.6280000000000001</v>
       </c>
       <c r="X15">
-        <v>-43.302999999999997</v>
+        <v>25.486000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>74.548000000000002</v>
+        <v>17.692</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>71.777000000000001</v>
+        <v>22.834</v>
       </c>
       <c r="D16">
-        <v>546.69299999999998</v>
+        <v>233.59</v>
       </c>
       <c r="E16">
-        <v>272.15100000000001</v>
+        <v>124.648</v>
       </c>
       <c r="F16">
-        <v>241.13200000000001</v>
+        <v>93.923000000000002</v>
       </c>
       <c r="G16">
-        <v>1081.5260000000001</v>
+        <v>262.18700000000001</v>
       </c>
       <c r="H16">
-        <v>2990.9969999999998</v>
+        <v>1153.8030000000001</v>
       </c>
       <c r="I16">
-        <v>146.827</v>
+        <v>77.576999999999998</v>
       </c>
       <c r="J16">
-        <v>705.32600000000002</v>
+        <v>286.14999999999998</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>423.375</v>
+        <v>142.55600000000001</v>
       </c>
       <c r="O16">
-        <v>1366.11</v>
+        <v>515.15899999999999</v>
       </c>
       <c r="P16">
-        <v>816.86500000000001</v>
+        <v>286.14999999999998</v>
       </c>
       <c r="Q16">
-        <v>26.952000000000002</v>
+        <v>-1.843</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1624.8869999999999</v>
+        <v>638.64400000000001</v>
       </c>
       <c r="U16">
-        <v>485.33499999999998</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="V16">
-        <v>91.995000000000005</v>
+        <v>32.704999999999998</v>
       </c>
       <c r="W16">
-        <v>-22.565000000000001</v>
+        <v>-4.6689999999999996</v>
       </c>
       <c r="X16">
-        <v>-27.442</v>
+        <v>90.623000000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>71.777000000000001</v>
+        <v>22.834</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>71.441000000000003</v>
+        <v>23.219000000000001</v>
       </c>
       <c r="D17">
-        <v>533.17899999999997</v>
+        <v>237.55699999999999</v>
       </c>
       <c r="E17">
-        <v>270.46600000000001</v>
+        <v>126.78100000000001</v>
       </c>
       <c r="F17">
-        <v>234.64599999999999</v>
+        <v>94.989000000000004</v>
       </c>
       <c r="G17">
-        <v>1076.9570000000001</v>
+        <v>264.97899999999998</v>
       </c>
       <c r="H17">
-        <v>2939.3119999999999</v>
+        <v>1162.3889999999999</v>
       </c>
       <c r="I17">
-        <v>134.40600000000001</v>
+        <v>71.444999999999993</v>
       </c>
       <c r="J17">
-        <v>720.173</v>
+        <v>264.25200000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>398.55099999999999</v>
+        <v>149.43100000000001</v>
       </c>
       <c r="O17">
-        <v>1351.412</v>
+        <v>501.56900000000002</v>
       </c>
       <c r="P17">
-        <v>823.423</v>
+        <v>264.25200000000001</v>
       </c>
       <c r="Q17">
-        <v>1.7310000000000001</v>
+        <v>0.371</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1587.9</v>
+        <v>660.82</v>
       </c>
       <c r="U17">
-        <v>487.06599999999997</v>
+        <v>6.36</v>
       </c>
       <c r="V17">
-        <v>100.40300000000001</v>
+        <v>42.014000000000003</v>
       </c>
       <c r="W17">
-        <v>-22.332000000000001</v>
+        <v>-6.048</v>
       </c>
       <c r="X17">
-        <v>-66.343999999999994</v>
+        <v>-26.8</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>71.441000000000003</v>
+        <v>23.219000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>61.62</v>
+        <v>22.661000000000001</v>
       </c>
       <c r="D18">
-        <v>523.899</v>
+        <v>242.55</v>
       </c>
       <c r="E18">
-        <v>253.45099999999999</v>
+        <v>116.43600000000001</v>
       </c>
       <c r="F18">
-        <v>230.417</v>
+        <v>96.153000000000006</v>
       </c>
       <c r="G18">
-        <v>1075.7909999999999</v>
+        <v>261.238</v>
       </c>
       <c r="H18">
-        <v>2903.4630000000002</v>
+        <v>1186.2919999999999</v>
       </c>
       <c r="I18">
-        <v>127.462</v>
+        <v>71.405000000000001</v>
       </c>
       <c r="J18">
-        <v>760.399</v>
+        <v>225.31700000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>411.96800000000002</v>
+        <v>148.255</v>
       </c>
       <c r="O18">
-        <v>1417.0119999999999</v>
+        <v>472.68700000000001</v>
       </c>
       <c r="P18">
-        <v>859.34500000000003</v>
+        <v>225.31700000000001</v>
       </c>
       <c r="Q18">
-        <v>22.071000000000002</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>6712</v>
+        <v>4232</v>
       </c>
       <c r="T18">
-        <v>1486.451</v>
+        <v>713.60500000000002</v>
       </c>
       <c r="U18">
-        <v>509.137</v>
+        <v>7.274</v>
       </c>
       <c r="V18">
-        <v>101.378</v>
+        <v>48.936</v>
       </c>
       <c r="W18">
-        <v>-22.201000000000001</v>
+        <v>-6.07</v>
       </c>
       <c r="X18">
-        <v>-46.982999999999997</v>
+        <v>-41.329000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>61.62</v>
+        <v>22.661000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>65.953999999999994</v>
+        <v>23.645</v>
       </c>
       <c r="D19">
-        <v>502.19799999999998</v>
+        <v>245.13800000000001</v>
       </c>
       <c r="E19">
-        <v>267.20600000000002</v>
+        <v>132.16800000000001</v>
       </c>
       <c r="F19">
-        <v>226.041</v>
+        <v>99.820999999999998</v>
       </c>
       <c r="G19">
-        <v>1081.3879999999999</v>
+        <v>279.16699999999997</v>
       </c>
       <c r="H19">
-        <v>2869.154</v>
+        <v>1194.4760000000001</v>
       </c>
       <c r="I19">
-        <v>131.018</v>
+        <v>72.926000000000002</v>
       </c>
       <c r="J19">
-        <v>819.86300000000006</v>
+        <v>217.827</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-7.6999999999999999E-2</v>
+        <v>-5.2060000000000004</v>
       </c>
       <c r="N19">
-        <v>360.03699999999998</v>
+        <v>147.34399999999999</v>
       </c>
       <c r="O19">
-        <v>1418.162</v>
+        <v>464.80700000000002</v>
       </c>
       <c r="P19">
-        <v>908.21299999999997</v>
+        <v>217.827</v>
       </c>
       <c r="Q19">
-        <v>-14.641</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1450.992</v>
+        <v>729.66899999999998</v>
       </c>
       <c r="U19">
-        <v>494.49599999999998</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="V19">
-        <v>49.404000000000003</v>
+        <v>16.266999999999999</v>
       </c>
       <c r="W19">
-        <v>-22.151</v>
+        <v>-6.07</v>
       </c>
       <c r="X19">
-        <v>-20.062000000000001</v>
+        <v>-9.2430000000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>65.953999999999994</v>
+        <v>23.645</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>69.584999999999994</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>514.88099999999997</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>286.11099999999999</v>
+        <v>144.096</v>
       </c>
       <c r="F20">
-        <v>231.61500000000001</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>933.59699999999998</v>
+        <v>290.96100000000001</v>
       </c>
       <c r="H20">
-        <v>2903.3580000000002</v>
+        <v>1192.0219999999999</v>
       </c>
       <c r="I20">
-        <v>136.55000000000001</v>
+        <v>80.915000000000006</v>
       </c>
       <c r="J20">
-        <v>874.77700000000004</v>
+        <v>190.066</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>307.66500000000002</v>
+        <v>156.446</v>
       </c>
       <c r="O20">
-        <v>1448.55</v>
+        <v>446.642</v>
       </c>
       <c r="P20">
-        <v>875.24599999999998</v>
+        <v>190.066</v>
       </c>
       <c r="Q20">
-        <v>-183.001</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1454.808</v>
+        <v>745.38</v>
       </c>
       <c r="U20">
-        <v>311.495</v>
+        <v>8.7870000000000008</v>
       </c>
       <c r="V20">
-        <v>99.024000000000001</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-24.759</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-106.087</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>69.584999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>79.504999999999995</v>
+        <v>28.515000000000001</v>
       </c>
       <c r="D21">
-        <v>503.791</v>
+        <v>249.57599999999999</v>
       </c>
       <c r="E21">
-        <v>272.00799999999998</v>
+        <v>141.684</v>
       </c>
       <c r="F21">
-        <v>225.96</v>
+        <v>101.304</v>
       </c>
       <c r="G21">
-        <v>906.399</v>
+        <v>313.64100000000002</v>
       </c>
       <c r="H21">
-        <v>2870.3620000000001</v>
+        <v>1211.6980000000001</v>
       </c>
       <c r="I21">
-        <v>129.22399999999999</v>
+        <v>76.813000000000002</v>
       </c>
       <c r="J21">
-        <v>852.78</v>
+        <v>160.78</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>324.18599999999998</v>
+        <v>157.53</v>
       </c>
       <c r="O21">
-        <v>1441.769</v>
+        <v>421.01299999999998</v>
       </c>
       <c r="P21">
-        <v>853.25099999999998</v>
+        <v>160.78</v>
       </c>
       <c r="Q21">
-        <v>-5.0129999999999999</v>
+        <v>24.876000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1428.5930000000001</v>
+        <v>790.68499999999995</v>
       </c>
       <c r="U21">
-        <v>306.48200000000003</v>
+        <v>33.661999999999999</v>
       </c>
       <c r="V21">
-        <v>113.35299999999999</v>
+        <v>48.695999999999998</v>
       </c>
       <c r="W21">
-        <v>-24.763000000000002</v>
+        <v>-6.1820000000000004</v>
       </c>
       <c r="X21">
-        <v>-109.42700000000001</v>
+        <v>-18.545000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>79.504999999999995</v>
+        <v>28.515000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>67.763000000000005</v>
+        <v>28.71</v>
       </c>
       <c r="D22">
-        <v>499.798</v>
+        <v>252.86600000000001</v>
       </c>
       <c r="E22">
-        <v>254.49199999999999</v>
+        <v>126.935</v>
       </c>
       <c r="F22">
-        <v>223.399</v>
+        <v>103.52800000000001</v>
       </c>
       <c r="G22">
-        <v>862.68399999999997</v>
+        <v>350.971</v>
       </c>
       <c r="H22">
-        <v>2805.4430000000002</v>
+        <v>1244.18</v>
       </c>
       <c r="I22">
-        <v>128.911</v>
+        <v>66.858999999999995</v>
       </c>
       <c r="J22">
-        <v>839.70699999999999</v>
+        <v>156.899</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>309.59699999999998</v>
+        <v>153.29599999999999</v>
       </c>
       <c r="O22">
-        <v>1362.152</v>
+        <v>421.17</v>
       </c>
       <c r="P22">
-        <v>840.79399999999998</v>
+        <v>160.04300000000001</v>
       </c>
       <c r="Q22">
-        <v>21.536000000000001</v>
+        <v>43.628</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>6801</v>
+        <v>4263</v>
       </c>
       <c r="T22">
-        <v>1443.2909999999999</v>
+        <v>823.01</v>
       </c>
       <c r="U22">
-        <v>328.01799999999997</v>
+        <v>77.200999999999993</v>
       </c>
       <c r="V22">
-        <v>98.54</v>
+        <v>42.994</v>
       </c>
       <c r="W22">
-        <v>-24.498999999999999</v>
+        <v>-6.2889999999999997</v>
       </c>
       <c r="X22">
-        <v>-59.951999999999998</v>
+        <v>7.1189999999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>67.763000000000005</v>
+        <v>28.71</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>68.13</v>
+        <v>30.077999999999999</v>
       </c>
       <c r="D23">
-        <v>502.572</v>
+        <v>266.38799999999998</v>
       </c>
       <c r="E23">
-        <v>296.834</v>
+        <v>154.327</v>
       </c>
       <c r="F23">
-        <v>225.535</v>
+        <v>110.133</v>
       </c>
       <c r="G23">
-        <v>976.50800000000004</v>
+        <v>381.78199999999998</v>
       </c>
       <c r="H23">
-        <v>3142.2979999999998</v>
+        <v>1307.463</v>
       </c>
       <c r="I23">
-        <v>140.18299999999999</v>
+        <v>80.995000000000005</v>
       </c>
       <c r="J23">
-        <v>1094.232</v>
+        <v>159.97800000000001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-20.994</v>
+        <v>-0.59899999999999998</v>
       </c>
       <c r="N23">
-        <v>292.28199999999998</v>
+        <v>162.209</v>
       </c>
       <c r="O23">
-        <v>1649.3879999999999</v>
+        <v>438.25400000000002</v>
       </c>
       <c r="P23">
-        <v>1095.5650000000001</v>
+        <v>166.96</v>
       </c>
       <c r="Q23">
-        <v>30.427</v>
+        <v>-6.1790000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1492.91</v>
+        <v>869.20899999999995</v>
       </c>
       <c r="U23">
-        <v>358.44499999999999</v>
+        <v>71.111000000000004</v>
       </c>
       <c r="V23">
-        <v>70.364999999999995</v>
+        <v>24.523</v>
       </c>
       <c r="W23">
-        <v>-24.661999999999999</v>
+        <v>-6.3209999999999997</v>
       </c>
       <c r="X23">
-        <v>186.41200000000001</v>
+        <v>1.282</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>68.13</v>
+        <v>30.077999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>75.759</v>
+        <v>34.956000000000003</v>
       </c>
       <c r="D24">
-        <v>549.69600000000003</v>
+        <v>296.57299999999998</v>
       </c>
       <c r="E24">
-        <v>296.48099999999999</v>
+        <v>154.58799999999999</v>
       </c>
       <c r="F24">
-        <v>247.65799999999999</v>
+        <v>122.92100000000001</v>
       </c>
       <c r="G24">
-        <v>969.28399999999999</v>
+        <v>368.142</v>
       </c>
       <c r="H24">
-        <v>3109.3560000000002</v>
+        <v>1386.5139999999999</v>
       </c>
       <c r="I24">
-        <v>129.16399999999999</v>
+        <v>78.847999999999999</v>
       </c>
       <c r="J24">
-        <v>1054.325</v>
+        <v>190.99799999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>297.71300000000002</v>
+        <v>189.54</v>
       </c>
       <c r="O24">
-        <v>1612.4259999999999</v>
+        <v>473.76900000000001</v>
       </c>
       <c r="P24">
-        <v>1055.558</v>
+        <v>198.77099999999999</v>
       </c>
       <c r="Q24">
-        <v>3.0430000000000001</v>
+        <v>-20.05</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1496.93</v>
+        <v>912.745</v>
       </c>
       <c r="U24">
-        <v>361.488</v>
+        <v>51.052</v>
       </c>
       <c r="V24">
-        <v>88.477999999999994</v>
+        <v>44.481000000000002</v>
       </c>
       <c r="W24">
-        <v>-26.768000000000001</v>
+        <v>-8.0090000000000003</v>
       </c>
       <c r="X24">
-        <v>-67.613</v>
+        <v>32.970999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>75.759</v>
+        <v>34.956000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>69.873000000000005</v>
+        <v>45.996000000000002</v>
       </c>
       <c r="D25">
-        <v>530.35599999999999</v>
+        <v>289.84800000000001</v>
       </c>
       <c r="E25">
-        <v>287.32900000000001</v>
+        <v>157.846</v>
       </c>
       <c r="F25">
-        <v>235.489</v>
+        <v>118.765</v>
       </c>
       <c r="G25">
-        <v>857.35299999999995</v>
+        <v>394.14400000000001</v>
       </c>
       <c r="H25">
-        <v>3262.4639999999999</v>
+        <v>1405.848</v>
       </c>
       <c r="I25">
-        <v>117.43</v>
+        <v>73.944000000000003</v>
       </c>
       <c r="J25">
-        <v>1099.6010000000001</v>
+        <v>160.16800000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>305.35700000000003</v>
+        <v>173.947</v>
       </c>
       <c r="O25">
-        <v>1707.721</v>
+        <v>451.43299999999999</v>
       </c>
       <c r="P25">
-        <v>1100.7719999999999</v>
+        <v>167.446</v>
       </c>
       <c r="Q25">
-        <v>-122.09099999999999</v>
+        <v>27.469000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1554.7429999999999</v>
+        <v>954.41499999999996</v>
       </c>
       <c r="U25">
-        <v>239.39699999999999</v>
+        <v>78.528999999999996</v>
       </c>
       <c r="V25">
-        <v>125.48099999999999</v>
+        <v>41.11</v>
       </c>
       <c r="W25">
-        <v>-25.937000000000001</v>
+        <v>-8.0269999999999992</v>
       </c>
       <c r="X25">
-        <v>22.922999999999998</v>
+        <v>-39.085999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>69.873000000000005</v>
+        <v>45.996000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>57.347000000000001</v>
+        <v>35.640999999999998</v>
       </c>
       <c r="D26">
-        <v>530.41899999999998</v>
+        <v>302.13099999999997</v>
       </c>
       <c r="E26">
-        <v>267.17200000000003</v>
+        <v>162.65600000000001</v>
       </c>
       <c r="F26">
-        <v>236.785</v>
+        <v>125.58799999999999</v>
       </c>
       <c r="G26">
-        <v>822.721</v>
+        <v>417.90800000000002</v>
       </c>
       <c r="H26">
-        <v>3154.944</v>
+        <v>1670.8209999999999</v>
       </c>
       <c r="I26">
-        <v>128.93299999999999</v>
+        <v>75.444000000000003</v>
       </c>
       <c r="J26">
-        <v>1014.235</v>
+        <v>353.77</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>309.15800000000002</v>
+        <v>187.25200000000001</v>
       </c>
       <c r="O26">
-        <v>1611.05</v>
+        <v>691.54899999999998</v>
       </c>
       <c r="P26">
-        <v>1015.2809999999999</v>
+        <v>361.98</v>
       </c>
       <c r="Q26">
-        <v>-3.4329999999999998</v>
+        <v>-0.58699999999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>7158</v>
+        <v>4863</v>
       </c>
       <c r="T26">
-        <v>1543.894</v>
+        <v>979.27200000000005</v>
       </c>
       <c r="U26">
-        <v>235.964</v>
+        <v>77.941000000000003</v>
       </c>
       <c r="V26">
-        <v>115.593</v>
+        <v>49.902999999999999</v>
       </c>
       <c r="W26">
-        <v>-25.283000000000001</v>
+        <v>-8.0359999999999996</v>
       </c>
       <c r="X26">
-        <v>-95.174000000000007</v>
+        <v>189.601</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>57.347000000000001</v>
+        <v>35.640999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>75.899000000000001</v>
+        <v>36.667000000000002</v>
       </c>
       <c r="D27">
-        <v>553.55200000000002</v>
+        <v>333.26799999999997</v>
       </c>
       <c r="E27">
-        <v>294.70699999999999</v>
+        <v>196.33600000000001</v>
       </c>
       <c r="F27">
-        <v>250.941</v>
+        <v>139.66399999999999</v>
       </c>
       <c r="G27">
-        <v>823.68</v>
+        <v>466.15899999999999</v>
       </c>
       <c r="H27">
-        <v>3163.7849999999999</v>
+        <v>1744.24</v>
       </c>
       <c r="I27">
-        <v>135.46199999999999</v>
+        <v>87.331999999999994</v>
       </c>
       <c r="J27">
-        <v>950.28300000000002</v>
+        <v>217.9</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-80.224000000000004</v>
+        <v>-32</v>
       </c>
       <c r="N27">
-        <v>278.45499999999998</v>
+        <v>337.84399999999999</v>
       </c>
       <c r="O27">
-        <v>1522.48</v>
+        <v>715.47400000000005</v>
       </c>
       <c r="P27">
-        <v>950.60599999999999</v>
+        <v>376.38900000000001</v>
       </c>
       <c r="Q27">
-        <v>-19.869</v>
+        <v>-0.439</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1641.3050000000001</v>
+        <v>1028.7660000000001</v>
       </c>
       <c r="U27">
-        <v>216.095</v>
+        <v>77.5</v>
       </c>
       <c r="V27">
-        <v>84.978999999999999</v>
+        <v>15.34</v>
       </c>
       <c r="W27">
-        <v>-26.327000000000002</v>
+        <v>-8.0549999999999997</v>
       </c>
       <c r="X27">
-        <v>-99.391000000000005</v>
+        <v>11.789</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>75.899000000000001</v>
+        <v>36.667000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>83.843999999999994</v>
+        <v>41.63</v>
       </c>
       <c r="D28">
-        <v>573.36599999999999</v>
+        <v>344.48200000000003</v>
       </c>
       <c r="E28">
-        <v>306.68799999999999</v>
+        <v>199.32</v>
       </c>
       <c r="F28">
-        <v>256.92500000000001</v>
+        <v>147.53399999999999</v>
       </c>
       <c r="G28">
-        <v>861.41800000000001</v>
+        <v>446.26799999999997</v>
       </c>
       <c r="H28">
-        <v>3224.165</v>
+        <v>1749.1120000000001</v>
       </c>
       <c r="I28">
-        <v>139.37700000000001</v>
+        <v>90.991</v>
       </c>
       <c r="J28">
-        <v>888.495</v>
+        <v>170.404</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>313.90499999999997</v>
+        <v>348.47199999999998</v>
       </c>
       <c r="O28">
-        <v>1497.154</v>
+        <v>682.25199999999995</v>
       </c>
       <c r="P28">
-        <v>888.84500000000003</v>
+        <v>328.64400000000001</v>
       </c>
       <c r="Q28">
-        <v>2.266</v>
+        <v>-25.478000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1727.011</v>
+        <v>1066.8599999999999</v>
       </c>
       <c r="U28">
-        <v>218.36099999999999</v>
+        <v>52.024999999999999</v>
       </c>
       <c r="V28">
-        <v>87.600999999999999</v>
+        <v>63.667000000000002</v>
       </c>
       <c r="W28">
-        <v>-28.245000000000001</v>
+        <v>-9.7080000000000002</v>
       </c>
       <c r="X28">
-        <v>-86.700999999999993</v>
+        <v>-49.959000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>83.843999999999994</v>
+        <v>41.63</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>83.768000000000001</v>
+        <v>38.411999999999999</v>
       </c>
       <c r="D29">
-        <v>574.49</v>
+        <v>334.88400000000001</v>
       </c>
       <c r="E29">
-        <v>307.505</v>
+        <v>193.45699999999999</v>
       </c>
       <c r="F29">
-        <v>257.93</v>
+        <v>137.66499999999999</v>
       </c>
       <c r="G29">
-        <v>955.47799999999995</v>
+        <v>466.28</v>
       </c>
       <c r="H29">
-        <v>3317.761</v>
+        <v>1777.28</v>
       </c>
       <c r="I29">
-        <v>137.917</v>
+        <v>86.769000000000005</v>
       </c>
       <c r="J29">
-        <v>874.85299999999995</v>
+        <v>149.44800000000001</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>336.851</v>
+        <v>340.49900000000002</v>
       </c>
       <c r="O29">
-        <v>1507.4490000000001</v>
+        <v>659.452</v>
       </c>
       <c r="P29">
-        <v>875.2</v>
+        <v>304.02600000000001</v>
       </c>
       <c r="Q29">
-        <v>84.93</v>
+        <v>22.966000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1810.3119999999999</v>
+        <v>1117.828</v>
       </c>
       <c r="U29">
-        <v>303.291</v>
+        <v>74.992000000000004</v>
       </c>
       <c r="V29">
-        <v>124</v>
+        <v>58.32</v>
       </c>
       <c r="W29">
-        <v>-28.297000000000001</v>
+        <v>-9.7449999999999992</v>
       </c>
       <c r="X29">
-        <v>-50.636000000000003</v>
+        <v>-33.110999999999997</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>83.768000000000001</v>
+        <v>38.411999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>93.745999999999995</v>
+        <v>38.436</v>
       </c>
       <c r="D30">
-        <v>585.904</v>
+        <v>345.99700000000001</v>
       </c>
       <c r="E30">
-        <v>290.03199999999998</v>
+        <v>186.565</v>
       </c>
       <c r="F30">
-        <v>260.88200000000001</v>
+        <v>143.58600000000001</v>
       </c>
       <c r="G30">
-        <v>1004.043</v>
+        <v>637.13800000000003</v>
       </c>
       <c r="H30">
-        <v>3399.6280000000002</v>
+        <v>1989.5940000000001</v>
       </c>
       <c r="I30">
-        <v>147.06700000000001</v>
+        <v>84.209000000000003</v>
       </c>
       <c r="J30">
-        <v>858.78800000000001</v>
+        <v>448.90100000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>360.97500000000002</v>
+        <v>198.953</v>
       </c>
       <c r="O30">
-        <v>1513.086</v>
+        <v>826.87099999999998</v>
       </c>
       <c r="P30">
-        <v>859.04600000000005</v>
+        <v>454.73099999999999</v>
       </c>
       <c r="Q30">
-        <v>72.659000000000006</v>
+        <v>27.765000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>7167</v>
+        <v>5009</v>
       </c>
       <c r="T30">
-        <v>1886.5419999999999</v>
+        <v>1162.723</v>
       </c>
       <c r="U30">
-        <v>375.95</v>
+        <v>102.75700000000001</v>
       </c>
       <c r="V30">
-        <v>136.173</v>
+        <v>59.911000000000001</v>
       </c>
       <c r="W30">
-        <v>-28.303000000000001</v>
+        <v>-9.7590000000000003</v>
       </c>
       <c r="X30">
-        <v>-40.692999999999998</v>
+        <v>143.018</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>93.745999999999995</v>
+        <v>38.436</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>98.957999999999998</v>
+        <v>39.603000000000002</v>
       </c>
       <c r="D31">
-        <v>612.32399999999996</v>
+        <v>371.66199999999998</v>
       </c>
       <c r="E31">
-        <v>328.65800000000002</v>
+        <v>241.52500000000001</v>
       </c>
       <c r="F31">
-        <v>276.65199999999999</v>
+        <v>152.47999999999999</v>
       </c>
       <c r="G31">
-        <v>1069.288</v>
+        <v>568.64300000000003</v>
       </c>
       <c r="H31">
-        <v>3485.4589999999998</v>
+        <v>2085.9609999999998</v>
       </c>
       <c r="I31">
-        <v>157.291</v>
+        <v>101.37</v>
       </c>
       <c r="J31">
-        <v>859.73099999999999</v>
+        <v>443.63799999999998</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-172.30099999999999</v>
       </c>
       <c r="N31">
-        <v>316.28199999999998</v>
+        <v>212.172</v>
       </c>
       <c r="O31">
-        <v>1468.5740000000001</v>
+        <v>857.47699999999998</v>
       </c>
       <c r="P31">
-        <v>860.56600000000003</v>
+        <v>449.60199999999998</v>
       </c>
       <c r="Q31">
-        <v>37.023000000000003</v>
+        <v>-2.9409999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2016.885</v>
+        <v>1228.4839999999999</v>
       </c>
       <c r="U31">
-        <v>412.97300000000001</v>
+        <v>99.816000000000003</v>
       </c>
       <c r="V31">
-        <v>71.728999999999999</v>
+        <v>30.553000000000001</v>
       </c>
       <c r="W31">
-        <v>-28.945</v>
+        <v>-9.7889999999999997</v>
       </c>
       <c r="X31">
-        <v>-26.486999999999998</v>
+        <v>-15.462</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>98.957999999999998</v>
+        <v>39.603000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>107.126</v>
+        <v>45.06</v>
       </c>
       <c r="D32">
-        <v>634.36</v>
+        <v>397.31</v>
       </c>
       <c r="E32">
-        <v>329.69200000000001</v>
+        <v>240.02799999999999</v>
       </c>
       <c r="F32">
-        <v>287.36700000000002</v>
+        <v>161.51</v>
       </c>
       <c r="G32">
-        <v>1113.7449999999999</v>
+        <v>582.90800000000002</v>
       </c>
       <c r="H32">
-        <v>3483.4580000000001</v>
+        <v>2105.0639999999999</v>
       </c>
       <c r="I32">
-        <v>150.53200000000001</v>
+        <v>101.81699999999999</v>
       </c>
       <c r="J32">
-        <v>858.66099999999994</v>
+        <v>397.06</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>347.03</v>
+        <v>231.61199999999999</v>
       </c>
       <c r="O32">
-        <v>1494.307</v>
+        <v>830.92700000000002</v>
       </c>
       <c r="P32">
-        <v>859.15700000000004</v>
+        <v>410.65899999999999</v>
       </c>
       <c r="Q32">
-        <v>45.777999999999999</v>
+        <v>18.722000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1989.1510000000001</v>
+        <v>1274.1369999999999</v>
       </c>
       <c r="U32">
-        <v>458.75099999999998</v>
+        <v>118.538</v>
       </c>
       <c r="V32">
-        <v>120.697</v>
+        <v>64.724000000000004</v>
       </c>
       <c r="W32">
-        <v>-32.970999999999997</v>
+        <v>-9.8209999999999997</v>
       </c>
       <c r="X32">
-        <v>-45.469000000000001</v>
+        <v>-39.1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>107.126</v>
+        <v>45.06</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>106.352</v>
+        <v>19.882999999999999</v>
       </c>
       <c r="D33">
-        <v>622.88800000000003</v>
+        <v>365.19299999999998</v>
       </c>
       <c r="E33">
-        <v>324.89499999999998</v>
+        <v>210.18899999999999</v>
       </c>
       <c r="F33">
-        <v>280.233</v>
+        <v>147.78399999999999</v>
       </c>
       <c r="G33">
-        <v>1155.239</v>
+        <v>657.51900000000001</v>
       </c>
       <c r="H33">
-        <v>3554.8069999999998</v>
+        <v>2120.1880000000001</v>
       </c>
       <c r="I33">
-        <v>141.178</v>
+        <v>88.647999999999996</v>
       </c>
       <c r="J33">
-        <v>848.24599999999998</v>
+        <v>466.49799999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>360.21300000000002</v>
+        <v>210.745</v>
       </c>
       <c r="O33">
-        <v>1494.2329999999999</v>
+        <v>864.21100000000001</v>
       </c>
       <c r="P33">
-        <v>848.78200000000004</v>
+        <v>472.49700000000001</v>
       </c>
       <c r="Q33">
-        <v>33.015999999999998</v>
+        <v>115.43899999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2060.5740000000001</v>
+        <v>1255.9770000000001</v>
       </c>
       <c r="U33">
-        <v>491.767</v>
+        <v>233.977</v>
       </c>
       <c r="V33">
-        <v>133.327</v>
+        <v>72.835999999999999</v>
       </c>
       <c r="W33">
-        <v>-32.997</v>
+        <v>-9.8859999999999992</v>
       </c>
       <c r="X33">
-        <v>-62.613</v>
+        <v>54.081000000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>106.352</v>
+        <v>19.882999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>98.137</v>
+        <v>22.48</v>
       </c>
       <c r="D34">
-        <v>614.09400000000005</v>
+        <v>355.30599999999998</v>
       </c>
       <c r="E34">
-        <v>307.01</v>
+        <v>200.17599999999999</v>
       </c>
       <c r="F34">
-        <v>273.64299999999997</v>
+        <v>135.65899999999999</v>
       </c>
       <c r="G34">
-        <v>1092.5319999999999</v>
+        <v>480.68799999999999</v>
       </c>
       <c r="H34">
-        <v>3473.857</v>
+        <v>2151.8000000000002</v>
       </c>
       <c r="I34">
-        <v>143.196</v>
+        <v>87.304000000000002</v>
       </c>
       <c r="J34">
-        <v>848.33500000000004</v>
+        <v>558.24199999999996</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>364.661</v>
+        <v>219.869</v>
       </c>
       <c r="O34">
-        <v>1479.2170000000001</v>
+        <v>1007.0170000000001</v>
       </c>
       <c r="P34">
-        <v>848.81799999999998</v>
+        <v>564.09799999999996</v>
       </c>
       <c r="Q34">
-        <v>-25.36</v>
+        <v>-172.624</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7352</v>
+        <v>5813</v>
       </c>
       <c r="T34">
-        <v>1994.64</v>
+        <v>1144.7829999999999</v>
       </c>
       <c r="U34">
-        <v>466.40699999999998</v>
+        <v>61.353000000000002</v>
       </c>
       <c r="V34">
-        <v>153.59200000000001</v>
+        <v>54.947000000000003</v>
       </c>
       <c r="W34">
-        <v>-32.564999999999998</v>
+        <v>-9.9019999999999992</v>
       </c>
       <c r="X34">
-        <v>-155.44200000000001</v>
+        <v>23.16</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>98.137</v>
+        <v>22.48</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>110.268</v>
+        <v>22.605</v>
       </c>
       <c r="D35">
-        <v>622.23099999999999</v>
+        <v>326.613</v>
       </c>
       <c r="E35">
-        <v>333.78199999999998</v>
+        <v>205.73</v>
       </c>
       <c r="F35">
-        <v>283.834</v>
+        <v>123.194</v>
       </c>
       <c r="G35">
-        <v>1129.2280000000001</v>
+        <v>477.49900000000002</v>
       </c>
       <c r="H35">
-        <v>3551.46</v>
+        <v>2111.2579999999998</v>
       </c>
       <c r="I35">
-        <v>160.59399999999999</v>
+        <v>84.971000000000004</v>
       </c>
       <c r="J35">
-        <v>848.43700000000001</v>
+        <v>541.76599999999996</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-37.271000000000001</v>
       </c>
       <c r="N35">
-        <v>339.24700000000001</v>
+        <v>185.42500000000001</v>
       </c>
       <c r="O35">
-        <v>1496.2280000000001</v>
+        <v>958.053</v>
       </c>
       <c r="P35">
-        <v>917.05399999999997</v>
+        <v>543.55200000000002</v>
       </c>
       <c r="Q35">
-        <v>-10.276999999999999</v>
+        <v>1.744</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2055.232</v>
+        <v>1153.2049999999999</v>
       </c>
       <c r="U35">
-        <v>456.13</v>
+        <v>63.097000000000001</v>
       </c>
       <c r="V35">
-        <v>88.662999999999997</v>
+        <v>17.643000000000001</v>
       </c>
       <c r="W35">
-        <v>-33.445999999999998</v>
+        <v>-9.5229999999999997</v>
       </c>
       <c r="X35">
-        <v>-86.980999999999995</v>
+        <v>-12.932</v>
       </c>
       <c r="Y35">
-        <v>54.968000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>110.268</v>
+        <v>22.605</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>113.209</v>
+        <v>27.922000000000001</v>
       </c>
       <c r="D36">
-        <v>642.09900000000005</v>
+        <v>336.45499999999998</v>
       </c>
       <c r="E36">
-        <v>326.358</v>
+        <v>200.995</v>
       </c>
       <c r="F36">
-        <v>292.33699999999999</v>
+        <v>131.101</v>
       </c>
       <c r="G36">
-        <v>1216.8820000000001</v>
+        <v>467.54399999999998</v>
       </c>
       <c r="H36">
-        <v>3640.2150000000001</v>
+        <v>2128.2559999999999</v>
       </c>
       <c r="I36">
-        <v>160.57900000000001</v>
+        <v>75.221000000000004</v>
       </c>
       <c r="J36">
-        <v>848.55499999999995</v>
+        <v>500.84500000000003</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>361.791</v>
+        <v>193.227</v>
       </c>
       <c r="O36">
-        <v>1528.174</v>
+        <v>927.23299999999995</v>
       </c>
       <c r="P36">
-        <v>916.59900000000005</v>
+        <v>507.88299999999998</v>
       </c>
       <c r="Q36">
-        <v>87.058999999999997</v>
+        <v>4.819</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2112.0410000000002</v>
+        <v>1201.0229999999999</v>
       </c>
       <c r="U36">
-        <v>543.18899999999996</v>
+        <v>67.915999999999997</v>
       </c>
       <c r="V36">
-        <v>131.17500000000001</v>
+        <v>55.268000000000001</v>
       </c>
       <c r="W36">
-        <v>-37.837000000000003</v>
+        <v>-9.7789999999999999</v>
       </c>
       <c r="X36">
-        <v>-31.646999999999998</v>
+        <v>-48.985999999999997</v>
       </c>
       <c r="Y36">
-        <v>54.619</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>113.209</v>
+        <v>27.922000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>105.194</v>
+        <v>29.777000000000001</v>
       </c>
       <c r="D37">
-        <v>624.24599999999998</v>
+        <v>323.24900000000002</v>
       </c>
       <c r="E37">
-        <v>317.30500000000001</v>
+        <v>189.417</v>
       </c>
       <c r="F37">
-        <v>285.31799999999998</v>
+        <v>129.05799999999999</v>
       </c>
       <c r="G37">
-        <v>1190.624</v>
+        <v>458.59300000000002</v>
       </c>
       <c r="H37">
-        <v>3713.895</v>
+        <v>2122.8429999999998</v>
       </c>
       <c r="I37">
-        <v>147.07900000000001</v>
+        <v>76.320999999999998</v>
       </c>
       <c r="J37">
-        <v>848.72799999999995</v>
+        <v>452.40499999999997</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>370.67</v>
+        <v>206.858</v>
       </c>
       <c r="O37">
-        <v>1550.8420000000001</v>
+        <v>886.46699999999998</v>
       </c>
       <c r="P37">
-        <v>916.34799999999996</v>
+        <v>458.71199999999999</v>
       </c>
       <c r="Q37">
-        <v>-27.204000000000001</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2163.0529999999999</v>
+        <v>1236.376</v>
       </c>
       <c r="U37">
-        <v>515.98500000000001</v>
+        <v>74.429000000000002</v>
       </c>
       <c r="V37">
-        <v>157.06399999999999</v>
+        <v>84.763000000000005</v>
       </c>
       <c r="W37">
-        <v>-37.944000000000003</v>
+        <v>-9.6669999999999998</v>
       </c>
       <c r="X37">
-        <v>-74.043000000000006</v>
+        <v>-72.337000000000003</v>
       </c>
       <c r="Y37">
-        <v>53.283999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>105.194</v>
+        <v>29.777000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>96.85</v>
+        <v>33.087000000000003</v>
       </c>
       <c r="D38">
-        <v>605.99699999999996</v>
+        <v>343.34399999999999</v>
       </c>
       <c r="E38">
-        <v>291.77100000000002</v>
+        <v>179.76599999999999</v>
       </c>
       <c r="F38">
-        <v>266.88499999999999</v>
+        <v>139.03299999999999</v>
       </c>
       <c r="G38">
-        <v>1261.4449999999999</v>
+        <v>451.71199999999999</v>
       </c>
       <c r="H38">
-        <v>3813.9119999999998</v>
+        <v>2098.1570000000002</v>
       </c>
       <c r="I38">
-        <v>138.46299999999999</v>
+        <v>73.02</v>
       </c>
       <c r="J38">
-        <v>848.86400000000003</v>
+        <v>402.25099999999998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>357.87700000000001</v>
+        <v>189.68199999999999</v>
       </c>
       <c r="O38">
-        <v>1550.683</v>
+        <v>830.053</v>
       </c>
       <c r="P38">
-        <v>934.41499999999996</v>
+        <v>410.59699999999998</v>
       </c>
       <c r="Q38">
-        <v>116.596</v>
+        <v>-0.90300000000000002</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>7439</v>
+        <v>5300</v>
       </c>
       <c r="T38">
-        <v>2263.2289999999998</v>
+        <v>1268.104</v>
       </c>
       <c r="U38">
-        <v>632.58100000000002</v>
+        <v>73.525999999999996</v>
       </c>
       <c r="V38">
-        <v>151.16</v>
+        <v>54.857999999999997</v>
       </c>
       <c r="W38">
-        <v>-37.981000000000002</v>
+        <v>-9.6679999999999993</v>
       </c>
       <c r="X38">
-        <v>-34.914000000000001</v>
+        <v>-50.728999999999999</v>
       </c>
       <c r="Y38">
-        <v>69.927999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>96.85</v>
+        <v>33.087000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>101.998</v>
+        <v>36.625</v>
       </c>
       <c r="D39">
-        <v>594.46199999999999</v>
+        <v>355.59800000000001</v>
       </c>
       <c r="E39">
-        <v>327.83499999999998</v>
+        <v>206.387</v>
       </c>
       <c r="F39">
-        <v>271.95600000000002</v>
+        <v>147.541</v>
       </c>
       <c r="G39">
-        <v>1289.0719999999999</v>
+        <v>484.83300000000003</v>
       </c>
       <c r="H39">
-        <v>3943.6770000000001</v>
+        <v>2100.5390000000002</v>
       </c>
       <c r="I39">
-        <v>157.72399999999999</v>
+        <v>81.385999999999996</v>
       </c>
       <c r="J39">
-        <v>999.02</v>
+        <v>391.15300000000002</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>-11.077</v>
       </c>
       <c r="N39">
-        <v>366.89</v>
+        <v>183.98</v>
       </c>
       <c r="O39">
-        <v>1713.89</v>
+        <v>809.495</v>
       </c>
       <c r="P39">
-        <v>1096.258</v>
+        <v>393.762</v>
       </c>
       <c r="Q39">
-        <v>-63.362000000000002</v>
+        <v>-2.1379999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2229.7869999999998</v>
+        <v>1291.0440000000001</v>
       </c>
       <c r="U39">
-        <v>569.21900000000005</v>
+        <v>71.388000000000005</v>
       </c>
       <c r="V39">
-        <v>84.76</v>
+        <v>27.131</v>
       </c>
       <c r="W39">
-        <v>-38.735999999999997</v>
+        <v>-9.6969999999999992</v>
       </c>
       <c r="X39">
-        <v>-7.8019999999999996</v>
+        <v>-19.023</v>
       </c>
       <c r="Y39">
-        <v>80.802000000000007</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>101.998</v>
+        <v>36.625</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>70.864000000000004</v>
+        <v>40.398000000000003</v>
       </c>
       <c r="D40">
-        <v>561.24900000000002</v>
+        <v>378.52600000000001</v>
       </c>
       <c r="E40">
-        <v>270.255</v>
+        <v>200.43</v>
       </c>
       <c r="F40">
-        <v>238.90700000000001</v>
+        <v>154.821</v>
       </c>
       <c r="G40">
-        <v>1397.25</v>
+        <v>577.45000000000005</v>
       </c>
       <c r="H40">
-        <v>4073.5920000000001</v>
+        <v>2211.527</v>
       </c>
       <c r="I40">
-        <v>137.41300000000001</v>
+        <v>83.203999999999994</v>
       </c>
       <c r="J40">
-        <v>1044.4449999999999</v>
+        <v>465.85399999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>401.30700000000002</v>
+        <v>237.535</v>
       </c>
       <c r="O40">
-        <v>1812.5550000000001</v>
+        <v>939.39200000000005</v>
       </c>
       <c r="P40">
-        <v>1155.76</v>
+        <v>502.85899999999998</v>
       </c>
       <c r="Q40">
-        <v>177.12899999999999</v>
+        <v>87.75</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2261.0369999999998</v>
+        <v>1272.135</v>
       </c>
       <c r="U40">
-        <v>746.34799999999996</v>
+        <v>159.13800000000001</v>
       </c>
       <c r="V40">
-        <v>169.453</v>
+        <v>68.573999999999998</v>
       </c>
       <c r="W40">
-        <v>-37.762</v>
+        <v>-12.172000000000001</v>
       </c>
       <c r="X40">
-        <v>9.8520000000000003</v>
+        <v>84.286000000000001</v>
       </c>
       <c r="Y40">
-        <v>94.503</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>70.864000000000004</v>
+        <v>40.398000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>103.848</v>
+        <v>38.564</v>
       </c>
       <c r="D41">
-        <v>581.11300000000006</v>
+        <v>373.73099999999999</v>
       </c>
       <c r="E41">
-        <v>275.43200000000002</v>
+        <v>210.18799999999999</v>
       </c>
       <c r="F41">
-        <v>251.5</v>
+        <v>154.13300000000001</v>
       </c>
       <c r="G41">
-        <v>1520.752</v>
+        <v>660.95899999999995</v>
       </c>
       <c r="H41">
-        <v>4225.5950000000003</v>
+        <v>2346.4609999999998</v>
       </c>
       <c r="I41">
-        <v>134.78200000000001</v>
+        <v>94.299000000000007</v>
       </c>
       <c r="J41">
-        <v>1044.1120000000001</v>
+        <v>485.21800000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>409.69900000000001</v>
+        <v>280.85399999999998</v>
       </c>
       <c r="O41">
-        <v>1829.066</v>
+        <v>1010.703</v>
       </c>
       <c r="P41">
-        <v>1153.665</v>
+        <v>538.47699999999998</v>
       </c>
       <c r="Q41">
-        <v>131.41</v>
+        <v>46.915999999999997</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2396.529</v>
+        <v>1335.758</v>
       </c>
       <c r="U41">
-        <v>877.75800000000004</v>
+        <v>206.054</v>
       </c>
       <c r="V41">
-        <v>153.68600000000001</v>
+        <v>61.640999999999998</v>
       </c>
       <c r="W41">
-        <v>-37.75</v>
+        <v>-12.212999999999999</v>
       </c>
       <c r="X41">
-        <v>-22.858000000000001</v>
+        <v>-2.9449999999999998</v>
       </c>
       <c r="Y41">
-        <v>93.507000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>103.848</v>
+        <v>38.564</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>41.512999999999998</v>
+      </c>
+      <c r="D42">
+        <v>405.21800000000002</v>
+      </c>
+      <c r="E42">
+        <v>207.577</v>
+      </c>
+      <c r="F42">
+        <v>161.988</v>
+      </c>
+      <c r="G42">
+        <v>692.75800000000004</v>
+      </c>
+      <c r="H42">
+        <v>2381.6950000000002</v>
+      </c>
+      <c r="I42">
+        <v>104.05500000000001</v>
+      </c>
+      <c r="J42">
+        <v>408.45</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>353.66800000000001</v>
+      </c>
+      <c r="O42">
+        <v>1006.035</v>
+      </c>
+      <c r="P42">
+        <v>530.22299999999996</v>
+      </c>
+      <c r="Q42">
+        <v>29.082000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>5966</v>
+      </c>
+      <c r="T42">
+        <v>1375.66</v>
+      </c>
+      <c r="U42">
+        <v>235.136</v>
+      </c>
+      <c r="V42">
+        <v>27.131</v>
+      </c>
+      <c r="W42">
+        <v>-12.252000000000001</v>
+      </c>
+      <c r="X42">
+        <v>33.203000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>41.512999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>47.951000000000001</v>
+      </c>
+      <c r="D43">
+        <v>427.089</v>
+      </c>
+      <c r="E43">
+        <v>242.17699999999999</v>
+      </c>
+      <c r="F43">
+        <v>178.7</v>
+      </c>
+      <c r="G43">
+        <v>704.00699999999995</v>
+      </c>
+      <c r="H43">
+        <v>2465.4279999999999</v>
+      </c>
+      <c r="I43">
+        <v>112.90600000000001</v>
+      </c>
+      <c r="J43">
+        <v>415.38299999999998</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-17.983000000000001</v>
+      </c>
+      <c r="N43">
+        <v>328.709</v>
+      </c>
+      <c r="O43">
+        <v>992.44200000000001</v>
+      </c>
+      <c r="P43">
+        <v>519.90700000000004</v>
+      </c>
+      <c r="Q43">
+        <v>-39.588000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1472.9860000000001</v>
+      </c>
+      <c r="U43">
+        <v>195.548</v>
+      </c>
+      <c r="V43">
+        <v>29.126999999999999</v>
+      </c>
+      <c r="W43">
+        <v>-12.291</v>
+      </c>
+      <c r="X43">
+        <v>-11.859</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>47.951000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>50.182000000000002</v>
+      </c>
+      <c r="D44">
+        <v>453.798</v>
+      </c>
+      <c r="E44">
+        <v>270.23399999999998</v>
+      </c>
+      <c r="F44">
+        <v>184.839</v>
+      </c>
+      <c r="G44">
+        <v>814.005</v>
+      </c>
+      <c r="H44">
+        <v>2923.32</v>
+      </c>
+      <c r="I44">
+        <v>128.11699999999999</v>
+      </c>
+      <c r="J44">
+        <v>793.11699999999996</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>350.12599999999998</v>
+      </c>
+      <c r="O44">
+        <v>1411.67</v>
+      </c>
+      <c r="P44">
+        <v>879.298</v>
+      </c>
+      <c r="Q44">
+        <v>7.4130000000000003</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1511.65</v>
+      </c>
+      <c r="U44">
+        <v>202.96100000000001</v>
+      </c>
+      <c r="V44">
+        <v>51.710999999999999</v>
+      </c>
+      <c r="W44">
+        <v>-14.069000000000001</v>
+      </c>
+      <c r="X44">
+        <v>343.46100000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>50.182000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>48.335999999999999</v>
+      </c>
+      <c r="D45">
+        <v>476.88099999999997</v>
+      </c>
+      <c r="E45">
+        <v>258.346</v>
+      </c>
+      <c r="F45">
+        <v>194.33199999999999</v>
+      </c>
+      <c r="G45">
+        <v>805.30600000000004</v>
+      </c>
+      <c r="H45">
+        <v>2893.7280000000001</v>
+      </c>
+      <c r="I45">
+        <v>119.738</v>
+      </c>
+      <c r="J45">
+        <v>733.20399999999995</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>393.15899999999999</v>
+      </c>
+      <c r="O45">
+        <v>1388.307</v>
+      </c>
+      <c r="P45">
+        <v>855.43899999999996</v>
+      </c>
+      <c r="Q45">
+        <v>17.5</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1505.421</v>
+      </c>
+      <c r="U45">
+        <v>220.46100000000001</v>
+      </c>
+      <c r="V45">
+        <v>94.771000000000001</v>
+      </c>
+      <c r="W45">
+        <v>-14.098000000000001</v>
+      </c>
+      <c r="X45">
+        <v>-58.917000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>48.335999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>47.387999999999998</v>
+      </c>
+      <c r="D46">
+        <v>480.68299999999999</v>
+      </c>
+      <c r="E46">
+        <v>248.95599999999999</v>
+      </c>
+      <c r="F46">
+        <v>209.40199999999999</v>
+      </c>
+      <c r="G46">
+        <v>789.16099999999994</v>
+      </c>
+      <c r="H46">
+        <v>2836.107</v>
+      </c>
+      <c r="I46">
+        <v>110.977</v>
+      </c>
+      <c r="J46">
+        <v>806.36599999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>258.27800000000002</v>
+      </c>
+      <c r="O46">
+        <v>1322.972</v>
+      </c>
+      <c r="P46">
+        <v>808.81</v>
+      </c>
+      <c r="Q46">
+        <v>9.798</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>6814</v>
+      </c>
+      <c r="T46">
+        <v>1513.135</v>
+      </c>
+      <c r="U46">
+        <v>230.25899999999999</v>
+      </c>
+      <c r="V46">
+        <v>41.631999999999998</v>
+      </c>
+      <c r="W46">
+        <v>-14.154999999999999</v>
+      </c>
+      <c r="X46">
+        <v>-19.273</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>47.387999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>52.170999999999999</v>
+      </c>
+      <c r="D47">
+        <v>489.41699999999997</v>
+      </c>
+      <c r="E47">
+        <v>270.82499999999999</v>
+      </c>
+      <c r="F47">
+        <v>202.88900000000001</v>
+      </c>
+      <c r="G47">
+        <v>829.06899999999996</v>
+      </c>
+      <c r="H47">
+        <v>2879.1260000000002</v>
+      </c>
+      <c r="I47">
+        <v>116.209</v>
+      </c>
+      <c r="J47">
+        <v>769.85</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-48.009</v>
+      </c>
+      <c r="N47">
+        <v>249.26</v>
+      </c>
+      <c r="O47">
+        <v>1278.5550000000001</v>
+      </c>
+      <c r="P47">
+        <v>773.64599999999996</v>
+      </c>
+      <c r="Q47">
+        <v>15.284000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1600.5709999999999</v>
+      </c>
+      <c r="U47">
+        <v>245.54300000000001</v>
+      </c>
+      <c r="V47">
+        <v>58.741999999999997</v>
+      </c>
+      <c r="W47">
+        <v>-14.161</v>
+      </c>
+      <c r="X47">
+        <v>-39.820999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>52.170999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>54.350999999999999</v>
+      </c>
+      <c r="D48">
+        <v>494.14400000000001</v>
+      </c>
+      <c r="E48">
+        <v>265.209</v>
+      </c>
+      <c r="F48">
+        <v>203.113</v>
+      </c>
+      <c r="G48">
+        <v>798.08900000000006</v>
+      </c>
+      <c r="H48">
+        <v>2856.8020000000001</v>
+      </c>
+      <c r="I48">
+        <v>114.43</v>
+      </c>
+      <c r="J48">
+        <v>753.72500000000002</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="O48">
+        <v>1277.549</v>
+      </c>
+      <c r="P48">
+        <v>759.34100000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-24.433</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1579.2529999999999</v>
+      </c>
+      <c r="U48">
+        <v>221.11</v>
+      </c>
+      <c r="V48">
+        <v>80.736000000000004</v>
+      </c>
+      <c r="W48">
+        <v>-16.731000000000002</v>
+      </c>
+      <c r="X48">
+        <v>-51.026000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>54.350999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>50.127000000000002</v>
+      </c>
+      <c r="D49">
+        <v>479.85899999999998</v>
+      </c>
+      <c r="E49">
+        <v>277.505</v>
+      </c>
+      <c r="F49">
+        <v>194.84</v>
+      </c>
+      <c r="G49">
+        <v>843.86400000000003</v>
+      </c>
+      <c r="H49">
+        <v>2957.4349999999999</v>
+      </c>
+      <c r="I49">
+        <v>117.79300000000001</v>
+      </c>
+      <c r="J49">
+        <v>782.76800000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>294.04199999999997</v>
+      </c>
+      <c r="O49">
+        <v>1348.598</v>
+      </c>
+      <c r="P49">
+        <v>787.92</v>
+      </c>
+      <c r="Q49">
+        <v>39.393000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1608.837</v>
+      </c>
+      <c r="U49">
+        <v>260.50299999999999</v>
+      </c>
+      <c r="V49">
+        <v>101.02</v>
+      </c>
+      <c r="W49">
+        <v>-16.66</v>
+      </c>
+      <c r="X49">
+        <v>-23.027000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>50.127000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-119.01900000000001</v>
+      </c>
+      <c r="D50">
+        <v>490.83800000000002</v>
+      </c>
+      <c r="E50">
+        <v>251.518</v>
+      </c>
+      <c r="F50">
+        <v>203.75800000000001</v>
+      </c>
+      <c r="G50">
+        <v>881.86500000000001</v>
+      </c>
+      <c r="H50">
+        <v>2785.39</v>
+      </c>
+      <c r="I50">
+        <v>117.34099999999999</v>
+      </c>
+      <c r="J50">
+        <v>779.24099999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>291.42700000000002</v>
+      </c>
+      <c r="O50">
+        <v>1320.3920000000001</v>
+      </c>
+      <c r="P50">
+        <v>786.57600000000002</v>
+      </c>
+      <c r="Q50">
+        <v>58.360999999999997</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>6717</v>
+      </c>
+      <c r="T50">
+        <v>1464.998</v>
+      </c>
+      <c r="U50">
+        <v>318.86399999999998</v>
+      </c>
+      <c r="V50">
+        <v>85.682000000000002</v>
+      </c>
+      <c r="W50">
+        <v>-16.535</v>
+      </c>
+      <c r="X50">
+        <v>-22.611000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>-119.01900000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>61.3</v>
+      </c>
+      <c r="D51">
+        <v>494.44799999999998</v>
+      </c>
+      <c r="E51">
+        <v>269.87299999999999</v>
+      </c>
+      <c r="F51">
+        <v>211.99700000000001</v>
+      </c>
+      <c r="G51">
+        <v>921.91800000000001</v>
+      </c>
+      <c r="H51">
+        <v>2822.6</v>
+      </c>
+      <c r="I51">
+        <v>122.376</v>
+      </c>
+      <c r="J51">
+        <v>815.56200000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="N51">
+        <v>283.62200000000001</v>
+      </c>
+      <c r="O51">
+        <v>1340.953</v>
+      </c>
+      <c r="P51">
+        <v>822.33799999999997</v>
+      </c>
+      <c r="Q51">
+        <v>22.181000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1481.6469999999999</v>
+      </c>
+      <c r="U51">
+        <v>341.04500000000002</v>
+      </c>
+      <c r="V51">
+        <v>72.194999999999993</v>
+      </c>
+      <c r="W51">
+        <v>-16.574999999999999</v>
+      </c>
+      <c r="X51">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>62.561</v>
+      </c>
+      <c r="D52">
+        <v>518.44500000000005</v>
+      </c>
+      <c r="E52">
+        <v>268.03500000000003</v>
+      </c>
+      <c r="F52">
+        <v>222.84899999999999</v>
+      </c>
+      <c r="G52">
+        <v>936.1</v>
+      </c>
+      <c r="H52">
+        <v>2827.652</v>
+      </c>
+      <c r="I52">
+        <v>127.292</v>
+      </c>
+      <c r="J52">
+        <v>811.00699999999995</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>294.68299999999999</v>
+      </c>
+      <c r="O52">
+        <v>1348.16</v>
+      </c>
+      <c r="P52">
+        <v>815.45799999999997</v>
+      </c>
+      <c r="Q52">
+        <v>33.444000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1479.492</v>
+      </c>
+      <c r="U52">
+        <v>374.48899999999998</v>
+      </c>
+      <c r="V52">
+        <v>109.319</v>
+      </c>
+      <c r="W52">
+        <v>-18.846</v>
+      </c>
+      <c r="X52">
+        <v>-67.403000000000006</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>62.561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>63.798999999999999</v>
+      </c>
+      <c r="D53">
+        <v>490.61700000000002</v>
+      </c>
+      <c r="E53">
+        <v>255.977</v>
+      </c>
+      <c r="F53">
+        <v>211.50899999999999</v>
+      </c>
+      <c r="G53">
+        <v>950.76900000000001</v>
+      </c>
+      <c r="H53">
+        <v>2849.3809999999999</v>
+      </c>
+      <c r="I53">
+        <v>130.68299999999999</v>
+      </c>
+      <c r="J53">
+        <v>780.04300000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>309.04199999999997</v>
+      </c>
+      <c r="O53">
+        <v>1334.857</v>
+      </c>
+      <c r="P53">
+        <v>784.42200000000003</v>
+      </c>
+      <c r="Q53">
+        <v>25.315999999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1514.5239999999999</v>
+      </c>
+      <c r="U53">
+        <v>399.80500000000001</v>
+      </c>
+      <c r="V53">
+        <v>118.396</v>
+      </c>
+      <c r="W53">
+        <v>-18.536000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-97.540999999999997</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>63.798999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>67.555000000000007</v>
+      </c>
+      <c r="D54">
+        <v>520.62</v>
+      </c>
+      <c r="E54">
+        <v>250.15100000000001</v>
+      </c>
+      <c r="F54">
+        <v>228.809</v>
+      </c>
+      <c r="G54">
+        <v>990.95299999999997</v>
+      </c>
+      <c r="H54">
+        <v>2887.5770000000002</v>
+      </c>
+      <c r="I54">
+        <v>133.31200000000001</v>
+      </c>
+      <c r="J54">
+        <v>772.005</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>304.60899999999998</v>
+      </c>
+      <c r="O54">
+        <v>1314.588</v>
+      </c>
+      <c r="P54">
+        <v>773.87599999999998</v>
+      </c>
+      <c r="Q54">
+        <v>39.823999999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6787</v>
+      </c>
+      <c r="T54">
+        <v>1572.989</v>
+      </c>
+      <c r="U54">
+        <v>439.62900000000002</v>
+      </c>
+      <c r="V54">
+        <v>101.61199999999999</v>
+      </c>
+      <c r="W54">
+        <v>-18.948</v>
+      </c>
+      <c r="X54">
+        <v>-55.654000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>67.555000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>74.548000000000002</v>
+      </c>
+      <c r="D55">
+        <v>543.99599999999998</v>
+      </c>
+      <c r="E55">
+        <v>287.90300000000002</v>
+      </c>
+      <c r="F55">
+        <v>244.42</v>
+      </c>
+      <c r="G55">
+        <v>1063.376</v>
+      </c>
+      <c r="H55">
+        <v>2951.8220000000001</v>
+      </c>
+      <c r="I55">
+        <v>149.04499999999999</v>
+      </c>
+      <c r="J55">
+        <v>778.85199999999998</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-13.617000000000001</v>
+      </c>
+      <c r="N55">
+        <v>313.98099999999999</v>
+      </c>
+      <c r="O55">
+        <v>1330.8240000000001</v>
+      </c>
+      <c r="P55">
+        <v>780.245</v>
+      </c>
+      <c r="Q55">
+        <v>18.754000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1620.998</v>
+      </c>
+      <c r="U55">
+        <v>458.38299999999998</v>
+      </c>
+      <c r="V55">
+        <v>74.185000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-18.628</v>
+      </c>
+      <c r="X55">
+        <v>-43.302999999999997</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>74.548000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>71.777000000000001</v>
+      </c>
+      <c r="D56">
+        <v>546.69299999999998</v>
+      </c>
+      <c r="E56">
+        <v>272.15100000000001</v>
+      </c>
+      <c r="F56">
+        <v>241.13200000000001</v>
+      </c>
+      <c r="G56">
+        <v>1081.5260000000001</v>
+      </c>
+      <c r="H56">
+        <v>2990.9969999999998</v>
+      </c>
+      <c r="I56">
+        <v>146.827</v>
+      </c>
+      <c r="J56">
+        <v>705.32600000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>423.375</v>
+      </c>
+      <c r="O56">
+        <v>1366.11</v>
+      </c>
+      <c r="P56">
+        <v>816.86500000000001</v>
+      </c>
+      <c r="Q56">
+        <v>26.952000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1624.8869999999999</v>
+      </c>
+      <c r="U56">
+        <v>485.33499999999998</v>
+      </c>
+      <c r="V56">
+        <v>91.995000000000005</v>
+      </c>
+      <c r="W56">
+        <v>-22.565000000000001</v>
+      </c>
+      <c r="X56">
+        <v>-27.442</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>71.777000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>71.441000000000003</v>
+      </c>
+      <c r="D57">
+        <v>533.17899999999997</v>
+      </c>
+      <c r="E57">
+        <v>270.46600000000001</v>
+      </c>
+      <c r="F57">
+        <v>234.64599999999999</v>
+      </c>
+      <c r="G57">
+        <v>1076.9570000000001</v>
+      </c>
+      <c r="H57">
+        <v>2939.3119999999999</v>
+      </c>
+      <c r="I57">
+        <v>134.40600000000001</v>
+      </c>
+      <c r="J57">
+        <v>720.173</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>398.55099999999999</v>
+      </c>
+      <c r="O57">
+        <v>1351.412</v>
+      </c>
+      <c r="P57">
+        <v>823.423</v>
+      </c>
+      <c r="Q57">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1587.9</v>
+      </c>
+      <c r="U57">
+        <v>487.06599999999997</v>
+      </c>
+      <c r="V57">
+        <v>100.40300000000001</v>
+      </c>
+      <c r="W57">
+        <v>-22.332000000000001</v>
+      </c>
+      <c r="X57">
+        <v>-66.343999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>71.441000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>61.62</v>
+      </c>
+      <c r="D58">
+        <v>523.899</v>
+      </c>
+      <c r="E58">
+        <v>253.45099999999999</v>
+      </c>
+      <c r="F58">
+        <v>230.417</v>
+      </c>
+      <c r="G58">
+        <v>1075.7909999999999</v>
+      </c>
+      <c r="H58">
+        <v>2903.4630000000002</v>
+      </c>
+      <c r="I58">
+        <v>127.462</v>
+      </c>
+      <c r="J58">
+        <v>760.399</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>411.96800000000002</v>
+      </c>
+      <c r="O58">
+        <v>1417.0119999999999</v>
+      </c>
+      <c r="P58">
+        <v>859.34500000000003</v>
+      </c>
+      <c r="Q58">
+        <v>22.071000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6712</v>
+      </c>
+      <c r="T58">
+        <v>1486.451</v>
+      </c>
+      <c r="U58">
+        <v>509.137</v>
+      </c>
+      <c r="V58">
+        <v>101.378</v>
+      </c>
+      <c r="W58">
+        <v>-22.201000000000001</v>
+      </c>
+      <c r="X58">
+        <v>-46.982999999999997</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>65.953999999999994</v>
+      </c>
+      <c r="D59">
+        <v>502.19799999999998</v>
+      </c>
+      <c r="E59">
+        <v>267.20600000000002</v>
+      </c>
+      <c r="F59">
+        <v>226.041</v>
+      </c>
+      <c r="G59">
+        <v>1081.3879999999999</v>
+      </c>
+      <c r="H59">
+        <v>2869.154</v>
+      </c>
+      <c r="I59">
+        <v>131.018</v>
+      </c>
+      <c r="J59">
+        <v>819.86300000000006</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="N59">
+        <v>360.03699999999998</v>
+      </c>
+      <c r="O59">
+        <v>1418.162</v>
+      </c>
+      <c r="P59">
+        <v>908.21299999999997</v>
+      </c>
+      <c r="Q59">
+        <v>-14.641</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1450.992</v>
+      </c>
+      <c r="U59">
+        <v>494.49599999999998</v>
+      </c>
+      <c r="V59">
+        <v>49.404000000000003</v>
+      </c>
+      <c r="W59">
+        <v>-22.151</v>
+      </c>
+      <c r="X59">
+        <v>-20.062000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>65.953999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>69.584999999999994</v>
+      </c>
+      <c r="D60">
+        <v>514.88099999999997</v>
+      </c>
+      <c r="E60">
+        <v>286.11099999999999</v>
+      </c>
+      <c r="F60">
+        <v>231.61500000000001</v>
+      </c>
+      <c r="G60">
+        <v>933.59699999999998</v>
+      </c>
+      <c r="H60">
+        <v>2903.3580000000002</v>
+      </c>
+      <c r="I60">
+        <v>136.55000000000001</v>
+      </c>
+      <c r="J60">
+        <v>874.77700000000004</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>307.66500000000002</v>
+      </c>
+      <c r="O60">
+        <v>1448.55</v>
+      </c>
+      <c r="P60">
+        <v>875.24599999999998</v>
+      </c>
+      <c r="Q60">
+        <v>-183.001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1454.808</v>
+      </c>
+      <c r="U60">
+        <v>311.495</v>
+      </c>
+      <c r="V60">
+        <v>99.024000000000001</v>
+      </c>
+      <c r="W60">
+        <v>-24.759</v>
+      </c>
+      <c r="X60">
+        <v>-106.087</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>69.584999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>79.504999999999995</v>
+      </c>
+      <c r="D61">
+        <v>503.791</v>
+      </c>
+      <c r="E61">
+        <v>272.00799999999998</v>
+      </c>
+      <c r="F61">
+        <v>225.96</v>
+      </c>
+      <c r="G61">
+        <v>906.399</v>
+      </c>
+      <c r="H61">
+        <v>2870.3620000000001</v>
+      </c>
+      <c r="I61">
+        <v>129.22399999999999</v>
+      </c>
+      <c r="J61">
+        <v>852.78</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>324.18599999999998</v>
+      </c>
+      <c r="O61">
+        <v>1441.769</v>
+      </c>
+      <c r="P61">
+        <v>853.25099999999998</v>
+      </c>
+      <c r="Q61">
+        <v>-5.0129999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1428.5930000000001</v>
+      </c>
+      <c r="U61">
+        <v>306.48200000000003</v>
+      </c>
+      <c r="V61">
+        <v>113.35299999999999</v>
+      </c>
+      <c r="W61">
+        <v>-24.763000000000002</v>
+      </c>
+      <c r="X61">
+        <v>-109.42700000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>79.504999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>67.763000000000005</v>
+      </c>
+      <c r="D62">
+        <v>499.798</v>
+      </c>
+      <c r="E62">
+        <v>254.49199999999999</v>
+      </c>
+      <c r="F62">
+        <v>223.399</v>
+      </c>
+      <c r="G62">
+        <v>862.68399999999997</v>
+      </c>
+      <c r="H62">
+        <v>2805.4430000000002</v>
+      </c>
+      <c r="I62">
+        <v>128.911</v>
+      </c>
+      <c r="J62">
+        <v>839.70699999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>309.59699999999998</v>
+      </c>
+      <c r="O62">
+        <v>1362.152</v>
+      </c>
+      <c r="P62">
+        <v>840.79399999999998</v>
+      </c>
+      <c r="Q62">
+        <v>21.536000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6801</v>
+      </c>
+      <c r="T62">
+        <v>1443.2909999999999</v>
+      </c>
+      <c r="U62">
+        <v>328.01799999999997</v>
+      </c>
+      <c r="V62">
+        <v>98.54</v>
+      </c>
+      <c r="W62">
+        <v>-24.498999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-59.951999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>67.763000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>68.13</v>
+      </c>
+      <c r="D63">
+        <v>502.572</v>
+      </c>
+      <c r="E63">
+        <v>296.834</v>
+      </c>
+      <c r="F63">
+        <v>225.535</v>
+      </c>
+      <c r="G63">
+        <v>976.50800000000004</v>
+      </c>
+      <c r="H63">
+        <v>3142.2979999999998</v>
+      </c>
+      <c r="I63">
+        <v>140.18299999999999</v>
+      </c>
+      <c r="J63">
+        <v>1094.232</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-20.994</v>
+      </c>
+      <c r="N63">
+        <v>292.28199999999998</v>
+      </c>
+      <c r="O63">
+        <v>1649.3879999999999</v>
+      </c>
+      <c r="P63">
+        <v>1095.5650000000001</v>
+      </c>
+      <c r="Q63">
+        <v>30.427</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1492.91</v>
+      </c>
+      <c r="U63">
+        <v>358.44499999999999</v>
+      </c>
+      <c r="V63">
+        <v>70.364999999999995</v>
+      </c>
+      <c r="W63">
+        <v>-24.661999999999999</v>
+      </c>
+      <c r="X63">
+        <v>186.41200000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>68.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>75.759</v>
+      </c>
+      <c r="D64">
+        <v>549.69600000000003</v>
+      </c>
+      <c r="E64">
+        <v>296.48099999999999</v>
+      </c>
+      <c r="F64">
+        <v>247.65799999999999</v>
+      </c>
+      <c r="G64">
+        <v>969.28399999999999</v>
+      </c>
+      <c r="H64">
+        <v>3109.3560000000002</v>
+      </c>
+      <c r="I64">
+        <v>129.16399999999999</v>
+      </c>
+      <c r="J64">
+        <v>1054.325</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>297.71300000000002</v>
+      </c>
+      <c r="O64">
+        <v>1612.4259999999999</v>
+      </c>
+      <c r="P64">
+        <v>1055.558</v>
+      </c>
+      <c r="Q64">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1496.93</v>
+      </c>
+      <c r="U64">
+        <v>361.488</v>
+      </c>
+      <c r="V64">
+        <v>88.477999999999994</v>
+      </c>
+      <c r="W64">
+        <v>-26.768000000000001</v>
+      </c>
+      <c r="X64">
+        <v>-67.613</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>75.759</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>69.873000000000005</v>
+      </c>
+      <c r="D65">
+        <v>530.35599999999999</v>
+      </c>
+      <c r="E65">
+        <v>287.32900000000001</v>
+      </c>
+      <c r="F65">
+        <v>235.489</v>
+      </c>
+      <c r="G65">
+        <v>857.35299999999995</v>
+      </c>
+      <c r="H65">
+        <v>3262.4639999999999</v>
+      </c>
+      <c r="I65">
+        <v>117.43</v>
+      </c>
+      <c r="J65">
+        <v>1099.6010000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>305.35700000000003</v>
+      </c>
+      <c r="O65">
+        <v>1707.721</v>
+      </c>
+      <c r="P65">
+        <v>1100.7719999999999</v>
+      </c>
+      <c r="Q65">
+        <v>-122.09099999999999</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1554.7429999999999</v>
+      </c>
+      <c r="U65">
+        <v>239.39699999999999</v>
+      </c>
+      <c r="V65">
+        <v>125.48099999999999</v>
+      </c>
+      <c r="W65">
+        <v>-25.937000000000001</v>
+      </c>
+      <c r="X65">
+        <v>22.922999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>69.873000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>57.347000000000001</v>
+      </c>
+      <c r="D66">
+        <v>530.41899999999998</v>
+      </c>
+      <c r="E66">
+        <v>267.17200000000003</v>
+      </c>
+      <c r="F66">
+        <v>236.785</v>
+      </c>
+      <c r="G66">
+        <v>822.721</v>
+      </c>
+      <c r="H66">
+        <v>3154.944</v>
+      </c>
+      <c r="I66">
+        <v>128.93299999999999</v>
+      </c>
+      <c r="J66">
+        <v>1014.235</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>309.15800000000002</v>
+      </c>
+      <c r="O66">
+        <v>1611.05</v>
+      </c>
+      <c r="P66">
+        <v>1015.2809999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-3.4329999999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7158</v>
+      </c>
+      <c r="T66">
+        <v>1543.894</v>
+      </c>
+      <c r="U66">
+        <v>235.964</v>
+      </c>
+      <c r="V66">
+        <v>115.593</v>
+      </c>
+      <c r="W66">
+        <v>-25.283000000000001</v>
+      </c>
+      <c r="X66">
+        <v>-95.174000000000007</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>57.347000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>75.899000000000001</v>
+      </c>
+      <c r="D67">
+        <v>553.55200000000002</v>
+      </c>
+      <c r="E67">
+        <v>294.70699999999999</v>
+      </c>
+      <c r="F67">
+        <v>250.941</v>
+      </c>
+      <c r="G67">
+        <v>823.68</v>
+      </c>
+      <c r="H67">
+        <v>3163.7849999999999</v>
+      </c>
+      <c r="I67">
+        <v>135.46199999999999</v>
+      </c>
+      <c r="J67">
+        <v>950.28300000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-80.224000000000004</v>
+      </c>
+      <c r="N67">
+        <v>278.45499999999998</v>
+      </c>
+      <c r="O67">
+        <v>1522.48</v>
+      </c>
+      <c r="P67">
+        <v>950.60599999999999</v>
+      </c>
+      <c r="Q67">
+        <v>-19.869</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1641.3050000000001</v>
+      </c>
+      <c r="U67">
+        <v>216.095</v>
+      </c>
+      <c r="V67">
+        <v>84.978999999999999</v>
+      </c>
+      <c r="W67">
+        <v>-26.327000000000002</v>
+      </c>
+      <c r="X67">
+        <v>-99.391000000000005</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>75.899000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>83.843999999999994</v>
+      </c>
+      <c r="D68">
+        <v>573.36599999999999</v>
+      </c>
+      <c r="E68">
+        <v>306.68799999999999</v>
+      </c>
+      <c r="F68">
+        <v>256.92500000000001</v>
+      </c>
+      <c r="G68">
+        <v>861.41800000000001</v>
+      </c>
+      <c r="H68">
+        <v>3224.165</v>
+      </c>
+      <c r="I68">
+        <v>139.37700000000001</v>
+      </c>
+      <c r="J68">
+        <v>888.495</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>313.90499999999997</v>
+      </c>
+      <c r="O68">
+        <v>1497.154</v>
+      </c>
+      <c r="P68">
+        <v>888.84500000000003</v>
+      </c>
+      <c r="Q68">
+        <v>2.266</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1727.011</v>
+      </c>
+      <c r="U68">
+        <v>218.36099999999999</v>
+      </c>
+      <c r="V68">
+        <v>87.600999999999999</v>
+      </c>
+      <c r="W68">
+        <v>-28.245000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-86.700999999999993</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>83.843999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>83.768000000000001</v>
+      </c>
+      <c r="D69">
+        <v>574.49</v>
+      </c>
+      <c r="E69">
+        <v>307.505</v>
+      </c>
+      <c r="F69">
+        <v>257.93</v>
+      </c>
+      <c r="G69">
+        <v>955.47799999999995</v>
+      </c>
+      <c r="H69">
+        <v>3317.761</v>
+      </c>
+      <c r="I69">
+        <v>137.917</v>
+      </c>
+      <c r="J69">
+        <v>874.85299999999995</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>336.851</v>
+      </c>
+      <c r="O69">
+        <v>1507.4490000000001</v>
+      </c>
+      <c r="P69">
+        <v>875.2</v>
+      </c>
+      <c r="Q69">
+        <v>84.93</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1810.3119999999999</v>
+      </c>
+      <c r="U69">
+        <v>303.291</v>
+      </c>
+      <c r="V69">
+        <v>124</v>
+      </c>
+      <c r="W69">
+        <v>-28.297000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-50.636000000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>83.768000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>93.745999999999995</v>
+      </c>
+      <c r="D70">
+        <v>585.904</v>
+      </c>
+      <c r="E70">
+        <v>290.03199999999998</v>
+      </c>
+      <c r="F70">
+        <v>260.88200000000001</v>
+      </c>
+      <c r="G70">
+        <v>1004.043</v>
+      </c>
+      <c r="H70">
+        <v>3399.6280000000002</v>
+      </c>
+      <c r="I70">
+        <v>147.06700000000001</v>
+      </c>
+      <c r="J70">
+        <v>858.78800000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>360.97500000000002</v>
+      </c>
+      <c r="O70">
+        <v>1513.086</v>
+      </c>
+      <c r="P70">
+        <v>859.04600000000005</v>
+      </c>
+      <c r="Q70">
+        <v>72.659000000000006</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7167</v>
+      </c>
+      <c r="T70">
+        <v>1886.5419999999999</v>
+      </c>
+      <c r="U70">
+        <v>375.95</v>
+      </c>
+      <c r="V70">
+        <v>136.173</v>
+      </c>
+      <c r="W70">
+        <v>-28.303000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-40.692999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>93.745999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="D71">
+        <v>612.32399999999996</v>
+      </c>
+      <c r="E71">
+        <v>328.65800000000002</v>
+      </c>
+      <c r="F71">
+        <v>276.65199999999999</v>
+      </c>
+      <c r="G71">
+        <v>1069.288</v>
+      </c>
+      <c r="H71">
+        <v>3485.4589999999998</v>
+      </c>
+      <c r="I71">
+        <v>157.291</v>
+      </c>
+      <c r="J71">
+        <v>859.73099999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>316.28199999999998</v>
+      </c>
+      <c r="O71">
+        <v>1468.5740000000001</v>
+      </c>
+      <c r="P71">
+        <v>860.56600000000003</v>
+      </c>
+      <c r="Q71">
+        <v>37.023000000000003</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2016.885</v>
+      </c>
+      <c r="U71">
+        <v>412.97300000000001</v>
+      </c>
+      <c r="V71">
+        <v>71.728999999999999</v>
+      </c>
+      <c r="W71">
+        <v>-28.945</v>
+      </c>
+      <c r="X71">
+        <v>-26.486999999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>98.957999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>107.126</v>
+      </c>
+      <c r="D72">
+        <v>634.36</v>
+      </c>
+      <c r="E72">
+        <v>329.69200000000001</v>
+      </c>
+      <c r="F72">
+        <v>287.36700000000002</v>
+      </c>
+      <c r="G72">
+        <v>1113.7449999999999</v>
+      </c>
+      <c r="H72">
+        <v>3483.4580000000001</v>
+      </c>
+      <c r="I72">
+        <v>150.53200000000001</v>
+      </c>
+      <c r="J72">
+        <v>858.66099999999994</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>347.03</v>
+      </c>
+      <c r="O72">
+        <v>1494.307</v>
+      </c>
+      <c r="P72">
+        <v>859.15700000000004</v>
+      </c>
+      <c r="Q72">
+        <v>45.777999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1989.1510000000001</v>
+      </c>
+      <c r="U72">
+        <v>458.75099999999998</v>
+      </c>
+      <c r="V72">
+        <v>120.697</v>
+      </c>
+      <c r="W72">
+        <v>-32.970999999999997</v>
+      </c>
+      <c r="X72">
+        <v>-45.469000000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>107.126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>106.352</v>
+      </c>
+      <c r="D73">
+        <v>622.88800000000003</v>
+      </c>
+      <c r="E73">
+        <v>324.89499999999998</v>
+      </c>
+      <c r="F73">
+        <v>280.233</v>
+      </c>
+      <c r="G73">
+        <v>1155.239</v>
+      </c>
+      <c r="H73">
+        <v>3554.8069999999998</v>
+      </c>
+      <c r="I73">
+        <v>141.178</v>
+      </c>
+      <c r="J73">
+        <v>848.24599999999998</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>360.21300000000002</v>
+      </c>
+      <c r="O73">
+        <v>1494.2329999999999</v>
+      </c>
+      <c r="P73">
+        <v>848.78200000000004</v>
+      </c>
+      <c r="Q73">
+        <v>33.015999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2060.5740000000001</v>
+      </c>
+      <c r="U73">
+        <v>491.767</v>
+      </c>
+      <c r="V73">
+        <v>133.327</v>
+      </c>
+      <c r="W73">
+        <v>-32.997</v>
+      </c>
+      <c r="X73">
+        <v>-62.613</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>106.352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>98.137</v>
+      </c>
+      <c r="D74">
+        <v>614.09400000000005</v>
+      </c>
+      <c r="E74">
+        <v>307.01</v>
+      </c>
+      <c r="F74">
+        <v>273.64299999999997</v>
+      </c>
+      <c r="G74">
+        <v>1092.5319999999999</v>
+      </c>
+      <c r="H74">
+        <v>3473.857</v>
+      </c>
+      <c r="I74">
+        <v>143.196</v>
+      </c>
+      <c r="J74">
+        <v>848.33500000000004</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>364.661</v>
+      </c>
+      <c r="O74">
+        <v>1479.2170000000001</v>
+      </c>
+      <c r="P74">
+        <v>848.81799999999998</v>
+      </c>
+      <c r="Q74">
+        <v>-25.36</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7352</v>
+      </c>
+      <c r="T74">
+        <v>1994.64</v>
+      </c>
+      <c r="U74">
+        <v>466.40699999999998</v>
+      </c>
+      <c r="V74">
+        <v>153.59200000000001</v>
+      </c>
+      <c r="W74">
+        <v>-32.564999999999998</v>
+      </c>
+      <c r="X74">
+        <v>-155.44200000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>98.137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>110.268</v>
+      </c>
+      <c r="D75">
+        <v>622.23099999999999</v>
+      </c>
+      <c r="E75">
+        <v>333.78199999999998</v>
+      </c>
+      <c r="F75">
+        <v>283.834</v>
+      </c>
+      <c r="G75">
+        <v>1129.2280000000001</v>
+      </c>
+      <c r="H75">
+        <v>3551.46</v>
+      </c>
+      <c r="I75">
+        <v>160.59399999999999</v>
+      </c>
+      <c r="J75">
+        <v>848.43700000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>339.24700000000001</v>
+      </c>
+      <c r="O75">
+        <v>1496.2280000000001</v>
+      </c>
+      <c r="P75">
+        <v>917.05399999999997</v>
+      </c>
+      <c r="Q75">
+        <v>-10.276999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2055.232</v>
+      </c>
+      <c r="U75">
+        <v>456.13</v>
+      </c>
+      <c r="V75">
+        <v>88.662999999999997</v>
+      </c>
+      <c r="W75">
+        <v>-33.445999999999998</v>
+      </c>
+      <c r="X75">
+        <v>-86.980999999999995</v>
+      </c>
+      <c r="Y75">
+        <v>54.968000000000004</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>110.268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>113.209</v>
+      </c>
+      <c r="D76">
+        <v>642.09900000000005</v>
+      </c>
+      <c r="E76">
+        <v>326.358</v>
+      </c>
+      <c r="F76">
+        <v>292.33699999999999</v>
+      </c>
+      <c r="G76">
+        <v>1216.8820000000001</v>
+      </c>
+      <c r="H76">
+        <v>3640.2150000000001</v>
+      </c>
+      <c r="I76">
+        <v>160.57900000000001</v>
+      </c>
+      <c r="J76">
+        <v>848.55499999999995</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>361.791</v>
+      </c>
+      <c r="O76">
+        <v>1528.174</v>
+      </c>
+      <c r="P76">
+        <v>916.59900000000005</v>
+      </c>
+      <c r="Q76">
+        <v>87.058999999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2112.0410000000002</v>
+      </c>
+      <c r="U76">
+        <v>543.18899999999996</v>
+      </c>
+      <c r="V76">
+        <v>131.17500000000001</v>
+      </c>
+      <c r="W76">
+        <v>-37.837000000000003</v>
+      </c>
+      <c r="X76">
+        <v>-31.646999999999998</v>
+      </c>
+      <c r="Y76">
+        <v>54.619</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>113.209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>105.194</v>
+      </c>
+      <c r="D77">
+        <v>624.24599999999998</v>
+      </c>
+      <c r="E77">
+        <v>317.30500000000001</v>
+      </c>
+      <c r="F77">
+        <v>285.31799999999998</v>
+      </c>
+      <c r="G77">
+        <v>1190.624</v>
+      </c>
+      <c r="H77">
+        <v>3713.895</v>
+      </c>
+      <c r="I77">
+        <v>147.07900000000001</v>
+      </c>
+      <c r="J77">
+        <v>848.72799999999995</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>370.67</v>
+      </c>
+      <c r="O77">
+        <v>1550.8420000000001</v>
+      </c>
+      <c r="P77">
+        <v>916.34799999999996</v>
+      </c>
+      <c r="Q77">
+        <v>-27.204000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2163.0529999999999</v>
+      </c>
+      <c r="U77">
+        <v>515.98500000000001</v>
+      </c>
+      <c r="V77">
+        <v>157.06399999999999</v>
+      </c>
+      <c r="W77">
+        <v>-37.944000000000003</v>
+      </c>
+      <c r="X77">
+        <v>-74.043000000000006</v>
+      </c>
+      <c r="Y77">
+        <v>53.283999999999999</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>105.194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>96.85</v>
+      </c>
+      <c r="D78">
+        <v>605.99699999999996</v>
+      </c>
+      <c r="E78">
+        <v>291.77100000000002</v>
+      </c>
+      <c r="F78">
+        <v>266.88499999999999</v>
+      </c>
+      <c r="G78">
+        <v>1261.4449999999999</v>
+      </c>
+      <c r="H78">
+        <v>3813.9119999999998</v>
+      </c>
+      <c r="I78">
+        <v>138.46299999999999</v>
+      </c>
+      <c r="J78">
+        <v>848.86400000000003</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>357.87700000000001</v>
+      </c>
+      <c r="O78">
+        <v>1550.683</v>
+      </c>
+      <c r="P78">
+        <v>934.41499999999996</v>
+      </c>
+      <c r="Q78">
+        <v>116.596</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>7439</v>
+      </c>
+      <c r="T78">
+        <v>2263.2289999999998</v>
+      </c>
+      <c r="U78">
+        <v>632.58100000000002</v>
+      </c>
+      <c r="V78">
+        <v>151.16</v>
+      </c>
+      <c r="W78">
+        <v>-37.981000000000002</v>
+      </c>
+      <c r="X78">
+        <v>-34.914000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>69.927999999999997</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>101.998</v>
+      </c>
+      <c r="D79">
+        <v>594.46199999999999</v>
+      </c>
+      <c r="E79">
+        <v>327.83499999999998</v>
+      </c>
+      <c r="F79">
+        <v>271.95600000000002</v>
+      </c>
+      <c r="G79">
+        <v>1289.0719999999999</v>
+      </c>
+      <c r="H79">
+        <v>3943.6770000000001</v>
+      </c>
+      <c r="I79">
+        <v>157.72399999999999</v>
+      </c>
+      <c r="J79">
+        <v>999.02</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>366.89</v>
+      </c>
+      <c r="O79">
+        <v>1713.89</v>
+      </c>
+      <c r="P79">
+        <v>1096.258</v>
+      </c>
+      <c r="Q79">
+        <v>-63.362000000000002</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2229.7869999999998</v>
+      </c>
+      <c r="U79">
+        <v>569.21900000000005</v>
+      </c>
+      <c r="V79">
+        <v>84.76</v>
+      </c>
+      <c r="W79">
+        <v>-38.735999999999997</v>
+      </c>
+      <c r="X79">
+        <v>-7.8019999999999996</v>
+      </c>
+      <c r="Y79">
+        <v>80.802000000000007</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>101.998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>70.864000000000004</v>
+      </c>
+      <c r="D80">
+        <v>561.24900000000002</v>
+      </c>
+      <c r="E80">
+        <v>270.255</v>
+      </c>
+      <c r="F80">
+        <v>238.90700000000001</v>
+      </c>
+      <c r="G80">
+        <v>1397.25</v>
+      </c>
+      <c r="H80">
+        <v>4073.5920000000001</v>
+      </c>
+      <c r="I80">
+        <v>137.41300000000001</v>
+      </c>
+      <c r="J80">
+        <v>1044.4449999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>401.30700000000002</v>
+      </c>
+      <c r="O80">
+        <v>1812.5550000000001</v>
+      </c>
+      <c r="P80">
+        <v>1155.76</v>
+      </c>
+      <c r="Q80">
+        <v>177.12899999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2261.0369999999998</v>
+      </c>
+      <c r="U80">
+        <v>746.34799999999996</v>
+      </c>
+      <c r="V80">
+        <v>169.453</v>
+      </c>
+      <c r="W80">
+        <v>-37.762</v>
+      </c>
+      <c r="X80">
+        <v>9.8520000000000003</v>
+      </c>
+      <c r="Y80">
+        <v>94.503</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>70.864000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>103.848</v>
+      </c>
+      <c r="D81">
+        <v>581.11300000000006</v>
+      </c>
+      <c r="E81">
+        <v>275.43200000000002</v>
+      </c>
+      <c r="F81">
+        <v>251.5</v>
+      </c>
+      <c r="G81">
+        <v>1520.752</v>
+      </c>
+      <c r="H81">
+        <v>4225.5950000000003</v>
+      </c>
+      <c r="I81">
+        <v>134.78200000000001</v>
+      </c>
+      <c r="J81">
+        <v>1044.1120000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>409.69900000000001</v>
+      </c>
+      <c r="O81">
+        <v>1829.066</v>
+      </c>
+      <c r="P81">
+        <v>1153.665</v>
+      </c>
+      <c r="Q81">
+        <v>131.41</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2396.529</v>
+      </c>
+      <c r="U81">
+        <v>877.75800000000004</v>
+      </c>
+      <c r="V81">
+        <v>153.68600000000001</v>
+      </c>
+      <c r="W81">
+        <v>-37.75</v>
+      </c>
+      <c r="X81">
+        <v>-22.858000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>93.507000000000005</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>103.848</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>101.068</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>614.822</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>282.197</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>269.16800000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1657.231</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4414.3980000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>151.99299999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1044.354</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>399.05799999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1874.0719999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1155.413</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>148.09299999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>7075</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>2540.326</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1025.8510000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>161.374</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-37.590000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-21.794</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>94.25</v>
       </c>
-      <c r="Z42">
-        <v>0.12</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>101.068</v>
       </c>
     </row>
